--- a/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2795560419961873</v>
+        <v>0.2795560419956473</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.310486771235134</v>
+        <v>1.310486771235105</v>
       </c>
       <c r="E2">
-        <v>1.551452553279049</v>
+        <v>1.55145255327902</v>
       </c>
       <c r="F2">
-        <v>13.37623245396762</v>
+        <v>13.37623245396796</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5865088209279961</v>
+        <v>0.5865088209280174</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>21.87267817734173</v>
+        <v>21.87267817734218</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2412744488305947</v>
+        <v>0.2412744488313621</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9223627622350818</v>
+        <v>0.9223627622347124</v>
       </c>
       <c r="E3">
-        <v>1.245236282907527</v>
+        <v>1.245236282907513</v>
       </c>
       <c r="F3">
-        <v>9.283084427714442</v>
+        <v>9.283084427714499</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4700663668793723</v>
+        <v>0.4700663668793936</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.25431162711618</v>
+        <v>17.25431162711624</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2188854887247516</v>
+        <v>0.2188854887249221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,10 +497,10 @@
         <v>0.7614721644817166</v>
       </c>
       <c r="E4">
-        <v>1.093598148584732</v>
+        <v>1.093598148584775</v>
       </c>
       <c r="F4">
-        <v>7.614507455407022</v>
+        <v>7.614507455407107</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4127023126784408</v>
+        <v>0.4127023126784479</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.031090204946</v>
+        <v>15.03109020494614</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.209929384731339</v>
+        <v>0.2099293847314527</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.705012182755496</v>
+        <v>0.705012182754956</v>
       </c>
       <c r="E5">
-        <v>1.036285202209982</v>
+        <v>1.03628520221001</v>
       </c>
       <c r="F5">
-        <v>7.035175822665479</v>
+        <v>7.035175822665366</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3911197190224982</v>
+        <v>0.3911197190225195</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.20005798973679</v>
+        <v>14.20005798973676</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2084505930344562</v>
+        <v>0.2084505930350815</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6960489040109792</v>
+        <v>0.6960489040107802</v>
       </c>
       <c r="E6">
-        <v>1.026974110670764</v>
+        <v>1.026974110670736</v>
       </c>
       <c r="F6">
-        <v>6.943556930490615</v>
+        <v>6.943556930490644</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3876191180571453</v>
+        <v>0.3876191180571382</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.06549845862494</v>
+        <v>14.06549845862489</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2187641100389044</v>
+        <v>0.2187641100381796</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7606806458692006</v>
+        <v>0.7606806458689732</v>
       </c>
       <c r="E7">
         <v>1.092810241262953</v>
       </c>
       <c r="F7">
-        <v>7.606360572393953</v>
+        <v>7.606360572393896</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4124052078328262</v>
+        <v>0.4124052078328475</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.0196327110468</v>
+        <v>15.01963271104674</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E8">
         <v>1.433173352367277</v>
       </c>
       <c r="F8">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E9">
         <v>1.433173352367277</v>
       </c>
       <c r="F9">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E10">
         <v>1.433173352367277</v>
       </c>
       <c r="F10">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E11">
         <v>1.433173352367277</v>
       </c>
       <c r="F11">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E12">
         <v>1.433173352367277</v>
       </c>
       <c r="F12">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E13">
         <v>1.433173352367277</v>
       </c>
       <c r="F13">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E14">
         <v>1.433173352367277</v>
       </c>
       <c r="F14">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E15">
         <v>1.433173352367277</v>
       </c>
       <c r="F15">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E16">
         <v>1.433173352367277</v>
       </c>
       <c r="F16">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E17">
         <v>1.433173352367277</v>
       </c>
       <c r="F17">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E18">
         <v>1.433173352367277</v>
       </c>
       <c r="F18">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E19">
         <v>1.433173352367277</v>
       </c>
       <c r="F19">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E20">
         <v>1.433173352367277</v>
       </c>
       <c r="F20">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E21">
         <v>1.433173352367277</v>
       </c>
       <c r="F21">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E22">
         <v>1.433173352367277</v>
       </c>
       <c r="F22">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E23">
         <v>1.433173352367277</v>
       </c>
       <c r="F23">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E24">
         <v>1.433173352367277</v>
       </c>
       <c r="F24">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2660076937003026</v>
+        <v>0.26600769369972</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.148886069817024</v>
+        <v>1.148886069816371</v>
       </c>
       <c r="E25">
         <v>1.433173352367277</v>
       </c>
       <c r="F25">
-        <v>11.66388002540302</v>
+        <v>11.66388002540285</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5415198624680926</v>
+        <v>0.5415198624681636</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.06574694529851</v>
+        <v>20.06574694529886</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2795560419956473</v>
+        <v>0.2795560419961873</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.310486771235105</v>
+        <v>1.310486771235134</v>
       </c>
       <c r="E2">
-        <v>1.55145255327902</v>
+        <v>1.551452553279049</v>
       </c>
       <c r="F2">
-        <v>13.37623245396796</v>
+        <v>13.37623245396762</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5865088209280174</v>
+        <v>0.5865088209279961</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>21.87267817734218</v>
+        <v>21.87267817734173</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2412744488313621</v>
+        <v>0.2412744488305947</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9223627622347124</v>
+        <v>0.9223627622350818</v>
       </c>
       <c r="E3">
-        <v>1.245236282907513</v>
+        <v>1.245236282907527</v>
       </c>
       <c r="F3">
-        <v>9.283084427714499</v>
+        <v>9.283084427714442</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4700663668793936</v>
+        <v>0.4700663668793723</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.25431162711624</v>
+        <v>17.25431162711618</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2188854887249221</v>
+        <v>0.2188854887247516</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,10 +497,10 @@
         <v>0.7614721644817166</v>
       </c>
       <c r="E4">
-        <v>1.093598148584775</v>
+        <v>1.093598148584732</v>
       </c>
       <c r="F4">
-        <v>7.614507455407107</v>
+        <v>7.614507455407022</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4127023126784479</v>
+        <v>0.4127023126784408</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.03109020494614</v>
+        <v>15.031090204946</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2099293847314527</v>
+        <v>0.209929384731339</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.705012182754956</v>
+        <v>0.705012182755496</v>
       </c>
       <c r="E5">
-        <v>1.03628520221001</v>
+        <v>1.036285202209982</v>
       </c>
       <c r="F5">
-        <v>7.035175822665366</v>
+        <v>7.035175822665479</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3911197190225195</v>
+        <v>0.3911197190224982</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.20005798973676</v>
+        <v>14.20005798973679</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2084505930350815</v>
+        <v>0.2084505930344562</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6960489040107802</v>
+        <v>0.6960489040109792</v>
       </c>
       <c r="E6">
-        <v>1.026974110670736</v>
+        <v>1.026974110670764</v>
       </c>
       <c r="F6">
-        <v>6.943556930490644</v>
+        <v>6.943556930490615</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3876191180571382</v>
+        <v>0.3876191180571453</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.06549845862489</v>
+        <v>14.06549845862494</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2187641100381796</v>
+        <v>0.2187641100389044</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7606806458689732</v>
+        <v>0.7606806458692006</v>
       </c>
       <c r="E7">
         <v>1.092810241262953</v>
       </c>
       <c r="F7">
-        <v>7.606360572393896</v>
+        <v>7.606360572393953</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4124052078328475</v>
+        <v>0.4124052078328262</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.01963271104674</v>
+        <v>15.0196327110468</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E8">
         <v>1.433173352367277</v>
       </c>
       <c r="F8">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E9">
         <v>1.433173352367277</v>
       </c>
       <c r="F9">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E10">
         <v>1.433173352367277</v>
       </c>
       <c r="F10">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E11">
         <v>1.433173352367277</v>
       </c>
       <c r="F11">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E12">
         <v>1.433173352367277</v>
       </c>
       <c r="F12">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E13">
         <v>1.433173352367277</v>
       </c>
       <c r="F13">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E14">
         <v>1.433173352367277</v>
       </c>
       <c r="F14">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E15">
         <v>1.433173352367277</v>
       </c>
       <c r="F15">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E16">
         <v>1.433173352367277</v>
       </c>
       <c r="F16">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E17">
         <v>1.433173352367277</v>
       </c>
       <c r="F17">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E18">
         <v>1.433173352367277</v>
       </c>
       <c r="F18">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E19">
         <v>1.433173352367277</v>
       </c>
       <c r="F19">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E20">
         <v>1.433173352367277</v>
       </c>
       <c r="F20">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E21">
         <v>1.433173352367277</v>
       </c>
       <c r="F21">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E22">
         <v>1.433173352367277</v>
       </c>
       <c r="F22">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E23">
         <v>1.433173352367277</v>
       </c>
       <c r="F23">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E24">
         <v>1.433173352367277</v>
       </c>
       <c r="F24">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.26600769369972</v>
+        <v>0.2660076937003026</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.148886069816371</v>
+        <v>1.148886069817024</v>
       </c>
       <c r="E25">
         <v>1.433173352367277</v>
       </c>
       <c r="F25">
-        <v>11.66388002540285</v>
+        <v>11.66388002540302</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5415198624681636</v>
+        <v>0.5415198624680926</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.06574694529886</v>
+        <v>20.06574694529851</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2795560419961873</v>
+        <v>0.2790338822987195</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.310486771235134</v>
+        <v>1.247226299414791</v>
       </c>
       <c r="E2">
-        <v>1.551452553279049</v>
+        <v>1.525149239870203</v>
       </c>
       <c r="F2">
-        <v>13.37623245396762</v>
+        <v>12.79063574446778</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0004946374001866844</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5865088209279961</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.579016987441193</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>21.87267817734173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>21.48278559308204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2412744488305947</v>
+        <v>0.2409589902681262</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9223627622350818</v>
+        <v>0.8859035006053375</v>
       </c>
       <c r="E3">
-        <v>1.245236282907527</v>
+        <v>1.22899055024223</v>
       </c>
       <c r="F3">
-        <v>9.283084427714442</v>
+        <v>8.973498195325135</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005626696365932382</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4700663668793723</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4656372965943163</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.25431162711618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.03626234781552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2188854887247516</v>
+        <v>0.2186336273740892</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7614721644817166</v>
+        <v>0.7331295280999939</v>
       </c>
       <c r="E4">
-        <v>1.093598148584732</v>
+        <v>1.080175303188426</v>
       </c>
       <c r="F4">
-        <v>7.614507455407022</v>
+        <v>7.387003795190623</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0005962724377078906</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4127023126784408</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4090505213712419</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.031090204946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14.86223425624112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.209929384731339</v>
+        <v>0.2096983242465313</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.705012182755496</v>
+        <v>0.679309078827913</v>
       </c>
       <c r="E5">
-        <v>1.036285202209982</v>
+        <v>1.023743444520846</v>
       </c>
       <c r="F5">
-        <v>7.035175822665479</v>
+        <v>6.834135119571499</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006090158212861331</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3911197190224982</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3876973583347336</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.20005798973679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.0467553359955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2084505930344562</v>
+        <v>0.2082227808605666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6960489040109792</v>
+        <v>0.6707573974530021</v>
       </c>
       <c r="E6">
-        <v>1.026974110670764</v>
+        <v>1.014567862345686</v>
       </c>
       <c r="F6">
-        <v>6.943556930490615</v>
+        <v>6.746631357072289</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006110900981091127</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3876191180571453</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.384231373749941</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.06549845862494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13.91459887894763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2187641100389044</v>
+        <v>0.2185125447177683</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7606806458692006</v>
+        <v>0.7323756234695225</v>
       </c>
       <c r="E7">
-        <v>1.092810241262953</v>
+        <v>1.079400092884725</v>
       </c>
       <c r="F7">
-        <v>7.606360572393953</v>
+        <v>7.379234878275952</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0005964473815137687</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4124052078328262</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4087567736764868</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.0196327110468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14.85100007793932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E8">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F8">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E9">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F9">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E10">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F10">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E11">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F11">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E12">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F12">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E13">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F13">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E14">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F14">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E15">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F15">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E16">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F16">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E17">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F17">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E18">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F18">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E19">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F19">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E20">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F20">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E21">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F21">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E22">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F22">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E23">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F23">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E24">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F24">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.06574694529851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>19.76006753824609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2660076937003026</v>
+        <v>0.2655847437509351</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.148886069817024</v>
+        <v>1.098554616418312</v>
       </c>
       <c r="E25">
-        <v>1.433173352367277</v>
+        <v>1.41182015831653</v>
       </c>
       <c r="F25">
-        <v>11.66388002540302</v>
+        <v>11.21213377884092</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005209841126503532</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5415198624680926</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5355746674108275</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.06574694529851</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>19.76006753824609</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2790338822987195</v>
+        <v>3.379275539696323</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.247226299414791</v>
+        <v>0.01414853821735917</v>
       </c>
       <c r="E2">
-        <v>1.525149239870203</v>
+        <v>3.151175601700885</v>
       </c>
       <c r="F2">
-        <v>12.79063574446778</v>
+        <v>2.161621692235087</v>
       </c>
       <c r="G2">
-        <v>0.0004946374001866844</v>
+        <v>0.0007167030867538553</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.579016987441193</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2.50754305305253</v>
       </c>
       <c r="M2">
-        <v>21.48278559308204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.710161385436024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2409589902681262</v>
+        <v>2.936691249387309</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8859035006053375</v>
+        <v>0.01115158827713714</v>
       </c>
       <c r="E3">
-        <v>1.22899055024223</v>
+        <v>2.748998923607928</v>
       </c>
       <c r="F3">
-        <v>8.973498195325135</v>
+        <v>1.842290694766632</v>
       </c>
       <c r="G3">
-        <v>0.0005626696365932382</v>
+        <v>0.000730163329874467</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4656372965943163</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.162299148231597</v>
       </c>
       <c r="M3">
-        <v>17.03626234781552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.455631786518111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2186336273740892</v>
+        <v>2.669629026052689</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7331295280999939</v>
+        <v>0.009795202385117108</v>
       </c>
       <c r="E4">
-        <v>1.080175303188426</v>
+        <v>2.505335889386274</v>
       </c>
       <c r="F4">
-        <v>7.387003795190623</v>
+        <v>1.658618538817748</v>
       </c>
       <c r="G4">
-        <v>0.0005962724377078906</v>
+        <v>0.0007385422129419777</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4090505213712419</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.95372230034053</v>
       </c>
       <c r="M4">
-        <v>14.86223425624112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.309981886192688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2096983242465313</v>
+        <v>2.561779742875387</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.679309078827913</v>
+        <v>0.009347093993916644</v>
       </c>
       <c r="E5">
-        <v>1.023743444520846</v>
+        <v>2.406692713373047</v>
       </c>
       <c r="F5">
-        <v>6.834135119571499</v>
+        <v>1.586441590878181</v>
       </c>
       <c r="G5">
-        <v>0.0006090158212861331</v>
+        <v>0.0007419913201100679</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3876973583347336</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.869417700320525</v>
       </c>
       <c r="M5">
-        <v>14.0467553359955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.252920490574951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2082227808605666</v>
+        <v>2.543925361404092</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6707573974530021</v>
+        <v>0.009278554763191948</v>
       </c>
       <c r="E6">
-        <v>1.014567862345686</v>
+        <v>2.390347867413809</v>
       </c>
       <c r="F6">
-        <v>6.746631357072289</v>
+        <v>1.574606064700959</v>
       </c>
       <c r="G6">
-        <v>0.0006110900981091127</v>
+        <v>0.000742566292387813</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.384231373749941</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.85545640047863</v>
       </c>
       <c r="M6">
-        <v>13.91459887894763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.243573755565549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2185125447177683</v>
+        <v>2.668170805661532</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7323756234695225</v>
+        <v>0.009788756069234239</v>
       </c>
       <c r="E7">
-        <v>1.079400092884725</v>
+        <v>2.504003124826028</v>
       </c>
       <c r="F7">
-        <v>7.379234878275952</v>
+        <v>1.65763486691958</v>
       </c>
       <c r="G7">
-        <v>0.0005964473815137687</v>
+        <v>0.0007385885812044286</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4087567736764868</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.95258273762721</v>
       </c>
       <c r="M7">
-        <v>14.85100007793932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.309203521800441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2655847437509351</v>
+        <v>3.225572739527252</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.098554616418312</v>
+        <v>0.01300370476663559</v>
       </c>
       <c r="E8">
-        <v>1.41182015831653</v>
+        <v>3.011713521607049</v>
       </c>
       <c r="F8">
-        <v>11.21213377884092</v>
+        <v>2.04865370980059</v>
       </c>
       <c r="G8">
-        <v>0.0005209841126503532</v>
+        <v>0.0007213242957020144</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.38769057592711</v>
       </c>
       <c r="M8">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.619945672328569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2655847437509351</v>
+        <v>4.366309442238105</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.098554616418312</v>
+        <v>0.02408073401788613</v>
       </c>
       <c r="E9">
-        <v>1.41182015831653</v>
+        <v>4.042706252473948</v>
       </c>
       <c r="F9">
-        <v>11.21213377884092</v>
+        <v>2.938001413760503</v>
       </c>
       <c r="G9">
-        <v>0.0005209841126503532</v>
+        <v>0.0006880562793657004</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.276739185152735</v>
       </c>
       <c r="M9">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.334341117703659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2655847437509351</v>
+        <v>5.251205594968042</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.098554616418312</v>
+        <v>0.03678692565626207</v>
       </c>
       <c r="E10">
-        <v>1.41182015831653</v>
+        <v>4.838148172090882</v>
       </c>
       <c r="F10">
-        <v>11.21213377884092</v>
+        <v>3.708303469614037</v>
       </c>
       <c r="G10">
-        <v>0.0005209841126503532</v>
+        <v>0.0006634183154658751</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.966817618563084</v>
       </c>
       <c r="M10">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.959324492779459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2655847437509351</v>
+        <v>5.669070516042211</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.098554616418312</v>
+        <v>0.04407655922292264</v>
       </c>
       <c r="E11">
-        <v>1.41182015831653</v>
+        <v>5.213229006848138</v>
       </c>
       <c r="F11">
-        <v>11.21213377884092</v>
+        <v>4.096964888586314</v>
       </c>
       <c r="G11">
-        <v>0.0005209841126503532</v>
+        <v>0.0006519999446427116</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4.293214382636449</v>
       </c>
       <c r="M11">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.276393893381851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2655847437509351</v>
+        <v>5.830063968654031</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.098554616418312</v>
+        <v>0.0471138721710318</v>
       </c>
       <c r="E12">
-        <v>1.41182015831653</v>
+        <v>5.357722491954576</v>
       </c>
       <c r="F12">
-        <v>11.21213377884092</v>
+        <v>4.251097107584769</v>
       </c>
       <c r="G12">
-        <v>0.0005209841126503532</v>
+        <v>0.0006476270072649483</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4.419095612939088</v>
       </c>
       <c r="M12">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.402420534371231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2655847437509351</v>
+        <v>5.795258222572215</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.098554616418312</v>
+        <v>0.04644626557655585</v>
       </c>
       <c r="E13">
-        <v>1.41182015831653</v>
+        <v>5.326483334520674</v>
       </c>
       <c r="F13">
-        <v>11.21213377884092</v>
+        <v>4.217564930546786</v>
       </c>
       <c r="G13">
-        <v>0.0005209841126503532</v>
+        <v>0.0006485713362738031</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4.391874198495771</v>
       </c>
       <c r="M13">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3.374989578402221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2655847437509351</v>
+        <v>5.682256627599884</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.098554616418312</v>
+        <v>0.044320483354781</v>
       </c>
       <c r="E14">
-        <v>1.41182015831653</v>
+        <v>5.225063556173069</v>
       </c>
       <c r="F14">
-        <v>11.21213377884092</v>
+        <v>4.109496223976436</v>
       </c>
       <c r="G14">
-        <v>0.0005209841126503532</v>
+        <v>0.0006516412901482374</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.303521725831104</v>
       </c>
       <c r="M14">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3.286634301786535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2655847437509351</v>
+        <v>5.613417685668992</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.098554616418312</v>
+        <v>0.04305652368355695</v>
       </c>
       <c r="E15">
-        <v>1.41182015831653</v>
+        <v>5.163280326831426</v>
       </c>
       <c r="F15">
-        <v>11.21213377884092</v>
+        <v>4.0442569730927</v>
       </c>
       <c r="G15">
-        <v>0.0005209841126503532</v>
+        <v>0.0006535146901988087</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.249717078547974</v>
       </c>
       <c r="M15">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.233333381870253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2655847437509351</v>
+        <v>5.224249848183774</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.098554616418312</v>
+        <v>0.03634562796633034</v>
       </c>
       <c r="E16">
-        <v>1.41182015831653</v>
+        <v>4.813946157097718</v>
       </c>
       <c r="F16">
-        <v>11.21213377884092</v>
+        <v>3.683788509814207</v>
       </c>
       <c r="G16">
-        <v>0.0005209841126503532</v>
+        <v>0.0006641588068622946</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.945776834355399</v>
       </c>
       <c r="M16">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.939361454768786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2655847437509351</v>
+        <v>4.989786889225456</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.098554616418312</v>
+        <v>0.03265268556226175</v>
       </c>
       <c r="E17">
-        <v>1.41182015831653</v>
+        <v>4.603380424155233</v>
       </c>
       <c r="F17">
-        <v>11.21213377884092</v>
+        <v>3.473363949586002</v>
       </c>
       <c r="G17">
-        <v>0.0005209841126503532</v>
+        <v>0.0006706228877351172</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.762825315591556</v>
       </c>
       <c r="M17">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.768195069770357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2655847437509351</v>
+        <v>4.856332420696504</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.098554616418312</v>
+        <v>0.03066626234617686</v>
       </c>
       <c r="E18">
-        <v>1.41182015831653</v>
+        <v>4.483473285012025</v>
       </c>
       <c r="F18">
-        <v>11.21213377884092</v>
+        <v>3.355826724344638</v>
       </c>
       <c r="G18">
-        <v>0.0005209841126503532</v>
+        <v>0.0006743224217944261</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.65873556576156</v>
       </c>
       <c r="M18">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.672736820042232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2655847437509351</v>
+        <v>4.811373071839967</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.098554616418312</v>
+        <v>0.03001578601674737</v>
       </c>
       <c r="E19">
-        <v>1.41182015831653</v>
+        <v>4.443067088666169</v>
       </c>
       <c r="F19">
-        <v>11.21213377884092</v>
+        <v>3.316592566154696</v>
       </c>
       <c r="G19">
-        <v>0.0005209841126503532</v>
+        <v>0.0006755723472373985</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>3.623675258819787</v>
       </c>
       <c r="M19">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.640897549485246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2655847437509351</v>
+        <v>5.014597125349155</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.098554616418312</v>
+        <v>0.03303117986661519</v>
       </c>
       <c r="E20">
-        <v>1.41182015831653</v>
+        <v>4.625667266022077</v>
       </c>
       <c r="F20">
-        <v>11.21213377884092</v>
+        <v>3.495393170209894</v>
       </c>
       <c r="G20">
-        <v>0.0005209841126503532</v>
+        <v>0.0006699368032780875</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3.782179772719132</v>
       </c>
       <c r="M20">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.78609839274543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2655847437509351</v>
+        <v>5.715368014025898</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.098554616418312</v>
+        <v>0.04493679432722075</v>
       </c>
       <c r="E21">
-        <v>1.41182015831653</v>
+        <v>5.254781068557293</v>
       </c>
       <c r="F21">
-        <v>11.21213377884092</v>
+        <v>4.141036188882111</v>
       </c>
       <c r="G21">
-        <v>0.0005209841126503532</v>
+        <v>0.000650741077809657</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4.329406537049067</v>
       </c>
       <c r="M21">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>3.312412899259058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2655847437509351</v>
+        <v>6.189798160754208</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.098554616418312</v>
+        <v>0.05437425999848955</v>
       </c>
       <c r="E22">
-        <v>1.41182015831653</v>
+        <v>5.68065689699884</v>
       </c>
       <c r="F22">
-        <v>11.21213377884092</v>
+        <v>4.604550589577684</v>
       </c>
       <c r="G22">
-        <v>0.0005209841126503532</v>
+        <v>0.0006378966575787123</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>4.70067928852518</v>
       </c>
       <c r="M22">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.69199585459323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2655847437509351</v>
+        <v>5.934860779863016</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.098554616418312</v>
+        <v>0.04916079291717068</v>
       </c>
       <c r="E23">
-        <v>1.41182015831653</v>
+        <v>5.451784893290807</v>
       </c>
       <c r="F23">
-        <v>11.21213377884092</v>
+        <v>4.352763334363829</v>
       </c>
       <c r="G23">
-        <v>0.0005209841126503532</v>
+        <v>0.0006447870309003868</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>4.501080128125352</v>
       </c>
       <c r="M23">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.485632758592999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2655847437509351</v>
+        <v>5.003376279322879</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.098554616418312</v>
+        <v>0.03285964105879202</v>
       </c>
       <c r="E24">
-        <v>1.41182015831653</v>
+        <v>4.615587842870383</v>
       </c>
       <c r="F24">
-        <v>11.21213377884092</v>
+        <v>3.485423152747813</v>
       </c>
       <c r="G24">
-        <v>0.0005209841126503532</v>
+        <v>0.0006702470328415867</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.773426257857693</v>
       </c>
       <c r="M24">
-        <v>19.76006753824609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.777995208435513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2655847437509351</v>
+        <v>4.050970877213217</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.098554616418312</v>
+        <v>0.02042483070332679</v>
       </c>
       <c r="E25">
-        <v>1.41182015831653</v>
+        <v>3.758522814477004</v>
       </c>
       <c r="F25">
-        <v>11.21213377884092</v>
+        <v>2.68047548199408</v>
       </c>
       <c r="G25">
-        <v>0.0005209841126503532</v>
+        <v>0.0006970435480118364</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5355746674108275</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.031016314763747</v>
       </c>
       <c r="M25">
-        <v>19.76006753824609</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.126574189693741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.379275539696323</v>
+        <v>0.596154537972069</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01414853821735917</v>
+        <v>0.02662908919127993</v>
       </c>
       <c r="E2">
-        <v>3.151175601700885</v>
+        <v>0.05871123882621032</v>
       </c>
       <c r="F2">
-        <v>2.161621692235087</v>
+        <v>1.320110525730016</v>
       </c>
       <c r="G2">
-        <v>0.0007167030867538553</v>
+        <v>1.088942238152967</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7512010848454054</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8092939795081904</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1157105326157879</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.295777760144915</v>
       </c>
       <c r="L2">
-        <v>2.50754305305253</v>
+        <v>0.2640128637114429</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1978652599602064</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.710161385436024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.936691249387309</v>
+        <v>0.5241902458503773</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01115158827713714</v>
+        <v>0.0256713781501805</v>
       </c>
       <c r="E3">
-        <v>2.748998923607928</v>
+        <v>0.05880411911057071</v>
       </c>
       <c r="F3">
-        <v>1.842290694766632</v>
+        <v>1.285265872150049</v>
       </c>
       <c r="G3">
-        <v>0.000730163329874467</v>
+        <v>1.050495757837524</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7413011981067967</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.8197182852897456</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1158831855610725</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.124123597889309</v>
       </c>
       <c r="L3">
-        <v>2.162299148231597</v>
+        <v>0.2336973566767995</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1744590487686075</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.455631786518111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669629026052689</v>
+        <v>0.4803207243215724</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009795202385117108</v>
+        <v>0.02509734650739937</v>
       </c>
       <c r="E4">
-        <v>2.505335889386274</v>
+        <v>0.05887799055697007</v>
       </c>
       <c r="F4">
-        <v>1.658618538817748</v>
+        <v>1.265881464057642</v>
       </c>
       <c r="G4">
-        <v>0.0007385422129419777</v>
+        <v>1.028777502796032</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.7363054999998155</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.8271895620380363</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1160107066468932</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.019192157072666</v>
       </c>
       <c r="L4">
-        <v>1.95372230034053</v>
+        <v>0.2153115742760008</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1602198084297335</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.309981886192688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.561779742875387</v>
+        <v>0.4625150163570311</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009347093993916644</v>
+        <v>0.02486667432880907</v>
       </c>
       <c r="E5">
-        <v>2.406692713373047</v>
+        <v>0.05891218558382183</v>
       </c>
       <c r="F5">
-        <v>1.586441590878181</v>
+        <v>1.258464906504621</v>
       </c>
       <c r="G5">
-        <v>0.0007419913201100679</v>
+        <v>1.02037738720847</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7345309503785558</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8304954107084193</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1160679551480506</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9765245814403443</v>
       </c>
       <c r="L5">
-        <v>1.869417700320525</v>
+        <v>0.2078712385274031</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1544472387043072</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.252920490574951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.543925361404092</v>
+        <v>0.4595624789044024</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009278554763191948</v>
+        <v>0.02482856023216407</v>
       </c>
       <c r="E6">
-        <v>2.390347867413809</v>
+        <v>0.0589181068118384</v>
       </c>
       <c r="F6">
-        <v>1.574606064700959</v>
+        <v>1.257261907071509</v>
       </c>
       <c r="G6">
-        <v>0.000742566292387813</v>
+        <v>1.019009057280229</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7342517542175671</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.8310598968059608</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1160777767831291</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9694445943831909</v>
       </c>
       <c r="L6">
-        <v>1.85545640047863</v>
+        <v>0.2066387685116666</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1534904313704821</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.243573755565549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.668170805661532</v>
+        <v>0.4800803113840431</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009788756069234239</v>
+        <v>0.02509422276193618</v>
       </c>
       <c r="E7">
-        <v>2.504003124826028</v>
+        <v>0.05887843533613724</v>
       </c>
       <c r="F7">
-        <v>1.65763486691958</v>
+        <v>1.26577951633837</v>
       </c>
       <c r="G7">
-        <v>0.0007385885812044286</v>
+        <v>1.028662424264922</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7362805242242132</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.8272330983685663</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1160114574901918</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.018616382081888</v>
       </c>
       <c r="L7">
-        <v>1.95258273762721</v>
+        <v>0.2152110274938792</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1601418400434476</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.309203521800441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.225572739527252</v>
+        <v>0.5712703837662616</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01300370476663559</v>
+        <v>0.02629579149894568</v>
       </c>
       <c r="E8">
-        <v>3.011713521607049</v>
+        <v>0.05873967810674396</v>
       </c>
       <c r="F8">
-        <v>2.04865370980059</v>
+        <v>1.307664731144968</v>
       </c>
       <c r="G8">
-        <v>0.0007213242957020144</v>
+        <v>1.075278835404063</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7475559980246373</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8126611113192581</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1157655188795612</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.23647992187199</v>
       </c>
       <c r="L8">
-        <v>2.38769057592711</v>
+        <v>0.2535094283850441</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1897653399921708</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.619945672328569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.366309442238105</v>
+        <v>0.7530111182460359</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02408073401788613</v>
+        <v>0.02877697020621284</v>
       </c>
       <c r="E9">
-        <v>4.042706252473948</v>
+        <v>0.0586083654509415</v>
       </c>
       <c r="F9">
-        <v>2.938001413760503</v>
+        <v>1.406850306522912</v>
       </c>
       <c r="G9">
-        <v>0.0006880562793657004</v>
+        <v>1.182856425763291</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.778792656807326</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7929633180736104</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1154602612643156</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.668579678593176</v>
       </c>
       <c r="L9">
-        <v>3.276739185152735</v>
+        <v>0.330682371762947</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.249064389518221</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.334341117703659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.251205594968042</v>
+        <v>0.8889270817365684</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03678692565626207</v>
+        <v>0.03069768937640305</v>
       </c>
       <c r="E10">
-        <v>4.838148172090882</v>
+        <v>0.05860882811475832</v>
       </c>
       <c r="F10">
-        <v>3.708303469614037</v>
+        <v>1.49175476818094</v>
       </c>
       <c r="G10">
-        <v>0.0006634183154658751</v>
+        <v>1.273514477976263</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8081029476864217</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.784469906630413</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1153537931882003</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.99080549216751</v>
       </c>
       <c r="L10">
-        <v>3.966817618563084</v>
+        <v>0.3890368446801062</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2936067691765771</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.959324492779459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.669070516042211</v>
+        <v>0.9514259897995316</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04407655922292264</v>
+        <v>0.03159825991255971</v>
       </c>
       <c r="E11">
-        <v>5.213229006848138</v>
+        <v>0.05863292181432778</v>
       </c>
       <c r="F11">
-        <v>4.096964888586314</v>
+        <v>1.533388375041497</v>
       </c>
       <c r="G11">
-        <v>0.0006519999446427116</v>
+        <v>1.317707746296236</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8230111194846472</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7820402801739448</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1153334637091312</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.138864401430595</v>
       </c>
       <c r="L11">
-        <v>4.293214382636449</v>
+        <v>0.4160387896412345</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3141399236062199</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.276393893381851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.830063968654031</v>
+        <v>0.9752021736218808</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0471138721710318</v>
+        <v>0.03194366529957549</v>
       </c>
       <c r="E12">
-        <v>5.357722491954576</v>
+        <v>0.05864574982093207</v>
       </c>
       <c r="F12">
-        <v>4.251097107584769</v>
+        <v>1.549622602112194</v>
       </c>
       <c r="G12">
-        <v>0.0006476270072649483</v>
+        <v>1.334905906812054</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8289004478494348</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7813388184533565</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.115330047124937</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.195181953086973</v>
       </c>
       <c r="L12">
-        <v>4.419095612939088</v>
+        <v>0.4263379118452235</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3219593697930065</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.402420534371231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.795258222572215</v>
+        <v>0.9700764745252286</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04644626557655585</v>
+        <v>0.03186907235189906</v>
       </c>
       <c r="E13">
-        <v>5.326483334520674</v>
+        <v>0.0586428176942223</v>
       </c>
       <c r="F13">
-        <v>4.217564930546786</v>
+        <v>1.546104836323622</v>
       </c>
       <c r="G13">
-        <v>0.0006485713362738031</v>
+        <v>1.331180728903092</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8276209329049777</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7814799617576398</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1153305883841753</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.18304115538686</v>
       </c>
       <c r="L13">
-        <v>4.391874198495771</v>
+        <v>0.4241163746954442</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.320273270614031</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.374989578402221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.682256627599884</v>
+        <v>0.9533798048802566</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.044320483354781</v>
+        <v>0.03162658565588927</v>
       </c>
       <c r="E14">
-        <v>5.225063556173069</v>
+        <v>0.05863390128447243</v>
       </c>
       <c r="F14">
-        <v>4.109496223976436</v>
+        <v>1.534714371098374</v>
       </c>
       <c r="G14">
-        <v>0.0006516412901482374</v>
+        <v>1.319113135171705</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8234906440898158</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7819781154067087</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1153330953342948</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.14349242050028</v>
       </c>
       <c r="L14">
-        <v>4.303521725831104</v>
+        <v>0.4168845690498131</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.314782322061653</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.286634301786535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.613417685668992</v>
+        <v>0.9431672330245249</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04305652368355695</v>
+        <v>0.03147864233475062</v>
       </c>
       <c r="E15">
-        <v>5.163280326831426</v>
+        <v>0.05862893067678132</v>
       </c>
       <c r="F15">
-        <v>4.0442569730927</v>
+        <v>1.527799499658485</v>
       </c>
       <c r="G15">
-        <v>0.0006535146901988087</v>
+        <v>1.311782897844978</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8209930330395139</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7823120988001477</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1153351961383642</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.11930154596368</v>
       </c>
       <c r="L15">
-        <v>4.249717078547974</v>
+        <v>0.412464789150178</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3114248434624471</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.233333381870253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.224249848183774</v>
+        <v>0.8848571898347188</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03634562796633034</v>
+        <v>0.03063941796503045</v>
       </c>
       <c r="E16">
-        <v>4.813946157097718</v>
+        <v>0.05860775648782779</v>
       </c>
       <c r="F16">
-        <v>3.683788509814207</v>
+        <v>1.48909746636653</v>
       </c>
       <c r="G16">
-        <v>0.0006641588068622946</v>
+        <v>1.270688980340353</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.8071618133502767</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7846585809884985</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1153557072138565</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.981162427803611</v>
       </c>
       <c r="L16">
-        <v>3.945776834355399</v>
+        <v>0.3872820921009179</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2922707489225616</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.939361454768786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.989786889225456</v>
+        <v>0.8492663120609905</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03265268556226175</v>
+        <v>0.03013180382465919</v>
       </c>
       <c r="E17">
-        <v>4.603380424155233</v>
+        <v>0.05860106622896477</v>
       </c>
       <c r="F17">
-        <v>3.473363949586002</v>
+        <v>1.466150451110991</v>
       </c>
       <c r="G17">
-        <v>0.0006706228877351172</v>
+        <v>1.246261850773081</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7990921329510883</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.786473872488088</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1153756506277261</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.896823171011761</v>
       </c>
       <c r="L17">
-        <v>3.762825315591556</v>
+        <v>0.3719559751411481</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2805931232365282</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.768195069770357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.856332420696504</v>
+        <v>0.8288576215092576</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03066626234617686</v>
+        <v>0.02984232790211649</v>
       </c>
       <c r="E18">
-        <v>4.483473285012025</v>
+        <v>0.0585994482554042</v>
       </c>
       <c r="F18">
-        <v>3.355826724344638</v>
+        <v>1.453232966961721</v>
       </c>
       <c r="G18">
-        <v>0.0006743224217944261</v>
+        <v>1.232487422970337</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7945977629858163</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7876521662919913</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1153897508145363</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.848449970933927</v>
       </c>
       <c r="L18">
-        <v>3.65873556576156</v>
+        <v>0.3631831905412071</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2739016049859089</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.672736820042232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.811373071839967</v>
+        <v>0.8219579043051226</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03001578601674737</v>
+        <v>0.02974472913287229</v>
       </c>
       <c r="E19">
-        <v>4.443067088666169</v>
+        <v>0.05859927573543156</v>
       </c>
       <c r="F19">
-        <v>3.316592566154696</v>
+        <v>1.448906556942831</v>
       </c>
       <c r="G19">
-        <v>0.0006755723472373985</v>
+        <v>1.227869816245047</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7931008012434404</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7880738015736952</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.115394969588813</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.83209396161007</v>
       </c>
       <c r="L19">
-        <v>3.623675258819787</v>
+        <v>0.3602199106455117</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2716401422347587</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.640897549485246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.014597125349155</v>
+        <v>0.8530484901790771</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03303117986661519</v>
+        <v>0.03018557889580009</v>
       </c>
       <c r="E20">
-        <v>4.625667266022077</v>
+        <v>0.05860154575713883</v>
       </c>
       <c r="F20">
-        <v>3.495393170209894</v>
+        <v>1.468563865324768</v>
       </c>
       <c r="G20">
-        <v>0.0006699368032780875</v>
+        <v>1.248833387068998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7999358182243554</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7862666573162116</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.115373253843865</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.905786832078974</v>
       </c>
       <c r="L20">
-        <v>3.782179772719132</v>
+        <v>0.3735830198716457</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2818335887439645</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.78609839274543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.715368014025898</v>
+        <v>0.95828095021389</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04493679432722075</v>
+        <v>0.03169768657253513</v>
       </c>
       <c r="E21">
-        <v>5.254781068557293</v>
+        <v>0.0586364174092977</v>
       </c>
       <c r="F21">
-        <v>4.141036188882111</v>
+        <v>1.538047013904801</v>
       </c>
       <c r="G21">
-        <v>0.000650741077809657</v>
+        <v>1.322644787475298</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.824697043368019</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.7818257598545273</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1153322407205124</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.15510171124248</v>
       </c>
       <c r="L21">
-        <v>4.329406537049067</v>
+        <v>0.4190066443252505</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3163939104853171</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.312412899259058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.189798160754208</v>
+        <v>1.027699686381851</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05437425999848955</v>
+        <v>0.03271174758570439</v>
       </c>
       <c r="E22">
-        <v>5.68065689699884</v>
+        <v>0.05868094809656466</v>
       </c>
       <c r="F22">
-        <v>4.604550589577684</v>
+        <v>1.586207632571416</v>
       </c>
       <c r="G22">
-        <v>0.0006378966575787123</v>
+        <v>1.373604539437281</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8423109197282486</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.7802039165138837</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.11533052603437</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.319525874205425</v>
       </c>
       <c r="L22">
-        <v>4.70067928852518</v>
+        <v>0.4491298130797219</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3392401232385751</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.69199585459323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.934860779863016</v>
+        <v>0.9905862258666218</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04916079291717068</v>
+        <v>0.03216797364421708</v>
       </c>
       <c r="E23">
-        <v>5.451784893290807</v>
+        <v>0.05865509435614036</v>
       </c>
       <c r="F23">
-        <v>4.352763334363829</v>
+        <v>1.560239290593927</v>
       </c>
       <c r="G23">
-        <v>0.0006447870309003868</v>
+        <v>1.346143908805459</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8327729639410677</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.7809480097151962</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1153290585177853</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.231620360907442</v>
       </c>
       <c r="L23">
-        <v>4.501080128125352</v>
+        <v>0.4330096095706324</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3270211805910392</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.485632758592999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.003376279322879</v>
+        <v>0.8513384033928162</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03285964105879202</v>
+        <v>0.03016125987959839</v>
       </c>
       <c r="E24">
-        <v>4.615587842870383</v>
+        <v>0.058601322041687</v>
       </c>
       <c r="F24">
-        <v>3.485423152747813</v>
+        <v>1.46747190666531</v>
       </c>
       <c r="G24">
-        <v>0.0006702470328415867</v>
+        <v>1.24766996034279</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7995539377835286</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.786359920787703</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1153743292420355</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.901734006945418</v>
       </c>
       <c r="L24">
-        <v>3.773426257857693</v>
+        <v>0.3728473139601789</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2812727058166544</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.777995208435513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.050970877213217</v>
+        <v>0.703472533925094</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02042483070332679</v>
+        <v>0.02809028500251287</v>
       </c>
       <c r="E25">
-        <v>3.758522814477004</v>
+        <v>0.05862774277999072</v>
       </c>
       <c r="F25">
-        <v>2.68047548199408</v>
+        <v>1.378030710985655</v>
       </c>
       <c r="G25">
-        <v>0.0006970435480118364</v>
+        <v>1.151848879134846</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.7692866112850254</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7972855917998345</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1155229350510627</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.550987000060758</v>
       </c>
       <c r="L25">
-        <v>3.031016314763747</v>
+        <v>0.3095445948355007</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2328695097663207</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.126574189693741</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.596154537972069</v>
+        <v>0.6077856373797204</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02662908919127993</v>
+        <v>0.08858407273058155</v>
       </c>
       <c r="E2">
-        <v>0.05871123882621032</v>
+        <v>0.1383886882530991</v>
       </c>
       <c r="F2">
-        <v>1.320110525730016</v>
+        <v>2.425425980498446</v>
       </c>
       <c r="G2">
-        <v>1.088942238152967</v>
+        <v>1.739103674548488</v>
       </c>
       <c r="H2">
-        <v>0.7512010848454054</v>
+        <v>1.533532072520757</v>
       </c>
       <c r="I2">
-        <v>0.8092939795081904</v>
+        <v>1.661324305719521</v>
       </c>
       <c r="J2">
-        <v>0.1157105326157879</v>
+        <v>0.2178276543611997</v>
       </c>
       <c r="K2">
-        <v>1.295777760144915</v>
+        <v>0.501783247074485</v>
       </c>
       <c r="L2">
-        <v>0.2640128637114429</v>
+        <v>0.2826155600626947</v>
       </c>
       <c r="M2">
-        <v>0.1978652599602064</v>
+        <v>0.2062002548140995</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5241902458503773</v>
+        <v>0.5905500464506019</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0256713781501805</v>
+        <v>0.08852275330679227</v>
       </c>
       <c r="E3">
-        <v>0.05880411911057071</v>
+        <v>0.1385762266425049</v>
       </c>
       <c r="F3">
-        <v>1.285265872150049</v>
+        <v>2.429558851590372</v>
       </c>
       <c r="G3">
-        <v>1.050495757837524</v>
+        <v>1.739172392453639</v>
       </c>
       <c r="H3">
-        <v>0.7413011981067967</v>
+        <v>1.538815280680907</v>
       </c>
       <c r="I3">
-        <v>0.8197182852897456</v>
+        <v>1.671441036884428</v>
       </c>
       <c r="J3">
-        <v>0.1158831855610725</v>
+        <v>0.2179082631518376</v>
       </c>
       <c r="K3">
-        <v>1.124123597889309</v>
+        <v>0.4535836331517089</v>
       </c>
       <c r="L3">
-        <v>0.2336973566767995</v>
+        <v>0.2759665249228505</v>
       </c>
       <c r="M3">
-        <v>0.1744590487686075</v>
+        <v>0.2007994489899332</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4803207243215724</v>
+        <v>0.5802164792265927</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02509734650739937</v>
+        <v>0.08849622883738384</v>
       </c>
       <c r="E4">
-        <v>0.05887799055697007</v>
+        <v>0.1387009929940231</v>
       </c>
       <c r="F4">
-        <v>1.265881464057642</v>
+        <v>2.433141834604491</v>
       </c>
       <c r="G4">
-        <v>1.028777502796032</v>
+        <v>1.740084023668345</v>
       </c>
       <c r="H4">
-        <v>0.7363054999998155</v>
+        <v>1.542651244385269</v>
       </c>
       <c r="I4">
-        <v>0.8271895620380363</v>
+        <v>1.678229608420406</v>
       </c>
       <c r="J4">
-        <v>0.1160107066468932</v>
+        <v>0.2179665382503924</v>
       </c>
       <c r="K4">
-        <v>1.019192157072666</v>
+        <v>0.424123304830573</v>
       </c>
       <c r="L4">
-        <v>0.2153115742760008</v>
+        <v>0.2720137689323252</v>
       </c>
       <c r="M4">
-        <v>0.1602198084297335</v>
+        <v>0.1975723632342508</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4625150163570311</v>
+        <v>0.576068547328461</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02486667432880907</v>
+        <v>0.08848822963513214</v>
       </c>
       <c r="E5">
-        <v>0.05891218558382183</v>
+        <v>0.1387542589701244</v>
       </c>
       <c r="F5">
-        <v>1.258464906504621</v>
+        <v>2.434864944551585</v>
       </c>
       <c r="G5">
-        <v>1.02037738720847</v>
+        <v>1.740674103860016</v>
       </c>
       <c r="H5">
-        <v>0.7345309503785558</v>
+        <v>1.544363409863308</v>
       </c>
       <c r="I5">
-        <v>0.8304954107084193</v>
+        <v>1.681141147197813</v>
       </c>
       <c r="J5">
-        <v>0.1160679551480506</v>
+        <v>0.2179925006093075</v>
       </c>
       <c r="K5">
-        <v>0.9765245814403443</v>
+        <v>0.4121521929483833</v>
       </c>
       <c r="L5">
-        <v>0.2078712385274031</v>
+        <v>0.2704357263824591</v>
       </c>
       <c r="M5">
-        <v>0.1544472387043072</v>
+        <v>0.1962798022966084</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4595624789044024</v>
+        <v>0.5753836089611326</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02482856023216407</v>
+        <v>0.08848707143339318</v>
       </c>
       <c r="E6">
-        <v>0.0589181068118384</v>
+        <v>0.1387632501991482</v>
       </c>
       <c r="F6">
-        <v>1.257261907071509</v>
+        <v>2.435166955420542</v>
       </c>
       <c r="G6">
-        <v>1.019009057280229</v>
+        <v>1.740785286845338</v>
       </c>
       <c r="H6">
-        <v>0.7342517542175671</v>
+        <v>1.54465671464763</v>
       </c>
       <c r="I6">
-        <v>0.8310598968059608</v>
+        <v>1.681633374649294</v>
       </c>
       <c r="J6">
-        <v>0.1160777767831291</v>
+        <v>0.2179969456063393</v>
       </c>
       <c r="K6">
-        <v>0.9694445943831909</v>
+        <v>0.4101664773122593</v>
       </c>
       <c r="L6">
-        <v>0.2066387685116666</v>
+        <v>0.2701756739625694</v>
       </c>
       <c r="M6">
-        <v>0.1534904313704821</v>
+        <v>0.196066536047681</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4800803113840431</v>
+        <v>0.5801602827856414</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02509422276193618</v>
+        <v>0.08849610956337983</v>
       </c>
       <c r="E7">
-        <v>0.05887843533613724</v>
+        <v>0.1387017015420337</v>
       </c>
       <c r="F7">
-        <v>1.26577951633837</v>
+        <v>2.433164007941059</v>
       </c>
       <c r="G7">
-        <v>1.028662424264922</v>
+        <v>1.740091096724328</v>
       </c>
       <c r="H7">
-        <v>0.7362805242242132</v>
+        <v>1.542673731904699</v>
       </c>
       <c r="I7">
-        <v>0.8272330983685663</v>
+        <v>1.678268286671177</v>
       </c>
       <c r="J7">
-        <v>0.1160114574901918</v>
+        <v>0.2179668794109411</v>
       </c>
       <c r="K7">
-        <v>1.018616382081888</v>
+        <v>0.4239617191657317</v>
       </c>
       <c r="L7">
-        <v>0.2152110274938792</v>
+        <v>0.2719923542070006</v>
       </c>
       <c r="M7">
-        <v>0.1601418400434476</v>
+        <v>0.1975548400395404</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5712703837662616</v>
+        <v>0.6017913432446562</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02629579149894568</v>
+        <v>0.08856062768450634</v>
       </c>
       <c r="E8">
-        <v>0.05873967810674396</v>
+        <v>0.1384513580969952</v>
       </c>
       <c r="F8">
-        <v>1.307664731144968</v>
+        <v>2.426634107721767</v>
       </c>
       <c r="G8">
-        <v>1.075278835404063</v>
+        <v>1.738946885485078</v>
       </c>
       <c r="H8">
-        <v>0.7475559980246373</v>
+        <v>1.535230902027976</v>
       </c>
       <c r="I8">
-        <v>0.8126611113192581</v>
+        <v>1.66469287880809</v>
       </c>
       <c r="J8">
-        <v>0.1157655188795612</v>
+        <v>0.2178536297675553</v>
       </c>
       <c r="K8">
-        <v>1.23647992187199</v>
+        <v>0.4851363476130643</v>
       </c>
       <c r="L8">
-        <v>0.2535094283850441</v>
+        <v>0.2802960965557872</v>
       </c>
       <c r="M8">
-        <v>0.1897653399921708</v>
+        <v>0.2043196454051639</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7530111182460359</v>
+        <v>0.6461706485561933</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02877697020621284</v>
+        <v>0.08877494113198736</v>
       </c>
       <c r="E9">
-        <v>0.0586083654509415</v>
+        <v>0.1380365518848408</v>
       </c>
       <c r="F9">
-        <v>1.406850306522912</v>
+        <v>2.422119327678516</v>
       </c>
       <c r="G9">
-        <v>1.182856425763291</v>
+        <v>1.74360580735906</v>
       </c>
       <c r="H9">
-        <v>0.778792656807326</v>
+        <v>1.52532951122798</v>
       </c>
       <c r="I9">
-        <v>0.7929633180736104</v>
+        <v>1.642645068646146</v>
       </c>
       <c r="J9">
-        <v>0.1154602612643156</v>
+        <v>0.2177009397258551</v>
       </c>
       <c r="K9">
-        <v>1.668579678593176</v>
+        <v>0.6061547364183468</v>
       </c>
       <c r="L9">
-        <v>0.330682371762947</v>
+        <v>0.2976060415829238</v>
       </c>
       <c r="M9">
-        <v>0.249064389518221</v>
+        <v>0.2182876584109259</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8889270817365684</v>
+        <v>0.6799539694451084</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03069768937640305</v>
+        <v>0.08898532985164209</v>
       </c>
       <c r="E10">
-        <v>0.05860882811475832</v>
+        <v>0.1377779450797203</v>
       </c>
       <c r="F10">
-        <v>1.49175476818094</v>
+        <v>2.423853590564505</v>
       </c>
       <c r="G10">
-        <v>1.273514477976263</v>
+        <v>1.751245561633638</v>
       </c>
       <c r="H10">
-        <v>0.8081029476864217</v>
+        <v>1.520912779706535</v>
       </c>
       <c r="I10">
-        <v>0.784469906630413</v>
+        <v>1.62923010860451</v>
       </c>
       <c r="J10">
-        <v>0.1153537931882003</v>
+        <v>0.2176307061188485</v>
       </c>
       <c r="K10">
-        <v>1.99080549216751</v>
+        <v>0.6957041727360433</v>
       </c>
       <c r="L10">
-        <v>0.3890368446801062</v>
+        <v>0.3109464729559335</v>
       </c>
       <c r="M10">
-        <v>0.2936067691765771</v>
+        <v>0.2289737775409719</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9514259897995316</v>
+        <v>0.6955751953559002</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03159825991255971</v>
+        <v>0.08909241799818091</v>
       </c>
       <c r="E11">
-        <v>0.05863292181432778</v>
+        <v>0.1376702679996811</v>
       </c>
       <c r="F11">
-        <v>1.533388375041497</v>
+        <v>2.425739042971031</v>
       </c>
       <c r="G11">
-        <v>1.317707746296236</v>
+        <v>1.755638829520052</v>
       </c>
       <c r="H11">
-        <v>0.8230111194846472</v>
+        <v>1.51952335590093</v>
       </c>
       <c r="I11">
-        <v>0.7820402801739448</v>
+        <v>1.623730792392571</v>
       </c>
       <c r="J11">
-        <v>0.1153334637091312</v>
+        <v>0.2176077914787058</v>
       </c>
       <c r="K11">
-        <v>2.138864401430595</v>
+        <v>0.7365802532454495</v>
       </c>
       <c r="L11">
-        <v>0.4160387896412345</v>
+        <v>0.3171501301179518</v>
       </c>
       <c r="M11">
-        <v>0.3141399236062199</v>
+        <v>0.2339263789023391</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9752021736218808</v>
+        <v>0.7015265606635239</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03194366529957549</v>
+        <v>0.08913459579116889</v>
       </c>
       <c r="E12">
-        <v>0.05864574982093207</v>
+        <v>0.1376309224017853</v>
       </c>
       <c r="F12">
-        <v>1.549622602112194</v>
+        <v>2.426610614251643</v>
       </c>
       <c r="G12">
-        <v>1.334905906812054</v>
+        <v>1.757434554536417</v>
       </c>
       <c r="H12">
-        <v>0.8289004478494348</v>
+        <v>1.51908626698301</v>
       </c>
       <c r="I12">
-        <v>0.7813388184533565</v>
+        <v>1.621735015129126</v>
       </c>
       <c r="J12">
-        <v>0.115330047124937</v>
+        <v>0.2176004074895257</v>
       </c>
       <c r="K12">
-        <v>2.195181953086973</v>
+        <v>0.7520787699467917</v>
       </c>
       <c r="L12">
-        <v>0.4263379118452235</v>
+        <v>0.3195186339691958</v>
       </c>
       <c r="M12">
-        <v>0.3219593697930065</v>
+        <v>0.2358148521628607</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9700764745252286</v>
+        <v>0.7002432359065551</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03186907235189906</v>
+        <v>0.08912543990872734</v>
       </c>
       <c r="E13">
-        <v>0.0586428176942223</v>
+        <v>0.1376393326633233</v>
       </c>
       <c r="F13">
-        <v>1.546104836323622</v>
+        <v>2.426415898256138</v>
       </c>
       <c r="G13">
-        <v>1.331180728903092</v>
+        <v>1.757041936762221</v>
       </c>
       <c r="H13">
-        <v>0.8276209329049777</v>
+        <v>1.519176442170618</v>
       </c>
       <c r="I13">
-        <v>0.7814799617576398</v>
+        <v>1.622160986461509</v>
       </c>
       <c r="J13">
-        <v>0.1153305883841753</v>
+        <v>0.2176019403376444</v>
       </c>
       <c r="K13">
-        <v>2.18304115538686</v>
+        <v>0.7487400209193993</v>
       </c>
       <c r="L13">
-        <v>0.4241163746954442</v>
+        <v>0.3190076769514434</v>
       </c>
       <c r="M13">
-        <v>0.320273270614031</v>
+        <v>0.2354075579775383</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9533798048802566</v>
+        <v>0.6960640998520091</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03162658565588927</v>
+        <v>0.08909585546738441</v>
       </c>
       <c r="E14">
-        <v>0.05863390128447243</v>
+        <v>0.1376670023865554</v>
       </c>
       <c r="F14">
-        <v>1.534714371098374</v>
+        <v>2.425807589800982</v>
       </c>
       <c r="G14">
-        <v>1.319113135171705</v>
+        <v>1.755783917070488</v>
       </c>
       <c r="H14">
-        <v>0.8234906440898158</v>
+        <v>1.519485611900734</v>
       </c>
       <c r="I14">
-        <v>0.7819781154067087</v>
+        <v>1.623564861379968</v>
       </c>
       <c r="J14">
-        <v>0.1153330953342948</v>
+        <v>0.2176071581071621</v>
       </c>
       <c r="K14">
-        <v>2.14349242050028</v>
+        <v>0.7378549346011596</v>
       </c>
       <c r="L14">
-        <v>0.4168845690498131</v>
+        <v>0.3173446018731312</v>
       </c>
       <c r="M14">
-        <v>0.314782322061653</v>
+        <v>0.234081484250531</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9431672330245249</v>
+        <v>0.6935089266150669</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03147864233475062</v>
+        <v>0.08907794555880244</v>
       </c>
       <c r="E15">
-        <v>0.05862893067678132</v>
+        <v>0.1376841369354864</v>
       </c>
       <c r="F15">
-        <v>1.527799499658485</v>
+        <v>2.425455503755757</v>
       </c>
       <c r="G15">
-        <v>1.311782897844978</v>
+        <v>1.755030548531096</v>
       </c>
       <c r="H15">
-        <v>0.8209930330395139</v>
+        <v>1.519686583015385</v>
       </c>
       <c r="I15">
-        <v>0.7823120988001477</v>
+        <v>1.624436064081259</v>
       </c>
       <c r="J15">
-        <v>0.1153351961383642</v>
+        <v>0.217610522392512</v>
       </c>
       <c r="K15">
-        <v>2.11930154596368</v>
+        <v>0.7311900485719889</v>
       </c>
       <c r="L15">
-        <v>0.412464789150178</v>
+        <v>0.3163284325022602</v>
       </c>
       <c r="M15">
-        <v>0.3114248434624471</v>
+        <v>0.2332709193042106</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8848571898347188</v>
+        <v>0.6789381395506098</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03063941796503045</v>
+        <v>0.08897855948284672</v>
       </c>
       <c r="E16">
-        <v>0.05860775648782779</v>
+        <v>0.1377851822391901</v>
       </c>
       <c r="F16">
-        <v>1.48909746636653</v>
+        <v>2.423752429220428</v>
       </c>
       <c r="G16">
-        <v>1.270688980340353</v>
+        <v>1.75097693006542</v>
       </c>
       <c r="H16">
-        <v>0.8071618133502767</v>
+        <v>1.521016047472287</v>
       </c>
       <c r="I16">
-        <v>0.7846585809884985</v>
+        <v>1.629601636048854</v>
       </c>
       <c r="J16">
-        <v>0.1153557072138565</v>
+        <v>0.2176323849417408</v>
       </c>
       <c r="K16">
-        <v>1.981162427803611</v>
+        <v>0.6930355959317751</v>
       </c>
       <c r="L16">
-        <v>0.3872820921009179</v>
+        <v>0.3105437576304411</v>
       </c>
       <c r="M16">
-        <v>0.2922707489225616</v>
+        <v>0.2286519432095488</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8492663120609905</v>
+        <v>0.6700639264367112</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03013180382465919</v>
+        <v>0.08892049661289647</v>
       </c>
       <c r="E17">
-        <v>0.05860106622896477</v>
+        <v>0.1378497198764148</v>
       </c>
       <c r="F17">
-        <v>1.466150451110991</v>
+        <v>2.422988432399535</v>
       </c>
       <c r="G17">
-        <v>1.246261850773081</v>
+        <v>1.748725332422111</v>
       </c>
       <c r="H17">
-        <v>0.7990921329510883</v>
+        <v>1.521990321189932</v>
       </c>
       <c r="I17">
-        <v>0.786473872488088</v>
+        <v>1.632925011481966</v>
       </c>
       <c r="J17">
-        <v>0.1153756506277261</v>
+        <v>0.2176481067256439</v>
       </c>
       <c r="K17">
-        <v>1.896823171011761</v>
+        <v>0.6696645133274615</v>
       </c>
       <c r="L17">
-        <v>0.3719559751411481</v>
+        <v>0.3070295571357775</v>
       </c>
       <c r="M17">
-        <v>0.2805931232365282</v>
+        <v>0.2258416853630578</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8288576215092576</v>
+        <v>0.6649835556326025</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02984232790211649</v>
+        <v>0.08888817227431289</v>
       </c>
       <c r="E18">
-        <v>0.0585994482554042</v>
+        <v>0.1378877783248549</v>
       </c>
       <c r="F18">
-        <v>1.453232966961721</v>
+        <v>2.422652217198106</v>
       </c>
       <c r="G18">
-        <v>1.232487422970337</v>
+        <v>1.747516664844781</v>
       </c>
       <c r="H18">
-        <v>0.7945977629858163</v>
+        <v>1.522609037200255</v>
       </c>
       <c r="I18">
-        <v>0.7876521662919913</v>
+        <v>1.634893309500605</v>
       </c>
       <c r="J18">
-        <v>0.1153897508145363</v>
+        <v>0.2176580002431052</v>
       </c>
       <c r="K18">
-        <v>1.848449970933927</v>
+        <v>0.6562352500783106</v>
       </c>
       <c r="L18">
-        <v>0.3631831905412071</v>
+        <v>0.3050209975707503</v>
       </c>
       <c r="M18">
-        <v>0.2739016049859089</v>
+        <v>0.2242339123776134</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8219579043051226</v>
+        <v>0.6632675376305883</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02974472913287229</v>
+        <v>0.08887741223842482</v>
       </c>
       <c r="E19">
-        <v>0.05859927573543156</v>
+        <v>0.1379008254900256</v>
       </c>
       <c r="F19">
-        <v>1.448906556942831</v>
+        <v>2.422556110577233</v>
       </c>
       <c r="G19">
-        <v>1.227869816245047</v>
+        <v>1.747122265728294</v>
       </c>
       <c r="H19">
-        <v>0.7931008012434404</v>
+        <v>1.522828545725389</v>
       </c>
       <c r="I19">
-        <v>0.7880738015736952</v>
+        <v>1.635569494928383</v>
       </c>
       <c r="J19">
-        <v>0.115394969588813</v>
+        <v>0.2176614963197139</v>
       </c>
       <c r="K19">
-        <v>1.83209396161007</v>
+        <v>0.6516906069333857</v>
       </c>
       <c r="L19">
-        <v>0.3602199106455117</v>
+        <v>0.3043431208924261</v>
       </c>
       <c r="M19">
-        <v>0.2716401422347587</v>
+        <v>0.223691030942561</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8530484901790771</v>
+        <v>0.6710061372120038</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03018557889580009</v>
+        <v>0.08892656664732357</v>
       </c>
       <c r="E20">
-        <v>0.05860154575713883</v>
+        <v>0.1378427526702248</v>
       </c>
       <c r="F20">
-        <v>1.468563865324768</v>
+        <v>2.42305907937579</v>
       </c>
       <c r="G20">
-        <v>1.248833387068998</v>
+        <v>1.748956076903994</v>
       </c>
       <c r="H20">
-        <v>0.7999358182243554</v>
+        <v>1.521880570645308</v>
       </c>
       <c r="I20">
-        <v>0.7862666573162116</v>
+        <v>1.632565356279713</v>
       </c>
       <c r="J20">
-        <v>0.115373253843865</v>
+        <v>0.2176463451074895</v>
       </c>
       <c r="K20">
-        <v>1.905786832078974</v>
+        <v>0.6721510456127078</v>
       </c>
       <c r="L20">
-        <v>0.3735830198716457</v>
+        <v>0.3074023345100727</v>
       </c>
       <c r="M20">
-        <v>0.2818335887439645</v>
+        <v>0.2261399515463296</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.95828095021389</v>
+        <v>0.6972906413317901</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03169768657253513</v>
+        <v>0.08910450109461721</v>
       </c>
       <c r="E21">
-        <v>0.0586364174092977</v>
+        <v>0.1376588363528342</v>
       </c>
       <c r="F21">
-        <v>1.538047013904801</v>
+        <v>2.425981988452918</v>
       </c>
       <c r="G21">
-        <v>1.322644787475298</v>
+        <v>1.756149842302818</v>
       </c>
       <c r="H21">
-        <v>0.824697043368019</v>
+        <v>1.519392384834248</v>
       </c>
       <c r="I21">
-        <v>0.7818257598545273</v>
+        <v>1.623150156798623</v>
       </c>
       <c r="J21">
-        <v>0.1153322407205124</v>
+        <v>0.2176055904691943</v>
       </c>
       <c r="K21">
-        <v>2.15510171124248</v>
+        <v>0.7410516190020928</v>
       </c>
       <c r="L21">
-        <v>0.4190066443252505</v>
+        <v>0.3178325639937896</v>
       </c>
       <c r="M21">
-        <v>0.3163939104853171</v>
+        <v>0.234470631532993</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.027699686381851</v>
+        <v>0.71467840359918</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03271174758570439</v>
+        <v>0.08923026333528128</v>
       </c>
       <c r="E22">
-        <v>0.05868094809656466</v>
+        <v>0.1375469663395443</v>
       </c>
       <c r="F22">
-        <v>1.586207632571416</v>
+        <v>2.428810801266906</v>
       </c>
       <c r="G22">
-        <v>1.373604539437281</v>
+        <v>1.761621349028673</v>
       </c>
       <c r="H22">
-        <v>0.8423109197282486</v>
+        <v>1.518285266314052</v>
       </c>
       <c r="I22">
-        <v>0.7802039165138837</v>
+        <v>1.617502079575864</v>
       </c>
       <c r="J22">
-        <v>0.11533052603437</v>
+        <v>0.2175864905592597</v>
       </c>
       <c r="K22">
-        <v>2.319525874205425</v>
+        <v>0.7861963551794418</v>
       </c>
       <c r="L22">
-        <v>0.4491298130797219</v>
+        <v>0.3247618484069079</v>
       </c>
       <c r="M22">
-        <v>0.3392401232385751</v>
+        <v>0.2399911108685231</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9905862258666218</v>
+        <v>0.7053792191911441</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03216797364421708</v>
+        <v>0.08916227848709113</v>
       </c>
       <c r="E23">
-        <v>0.05865509435614036</v>
+        <v>0.1376059124148543</v>
       </c>
       <c r="F23">
-        <v>1.560239290593927</v>
+        <v>2.427216994640631</v>
       </c>
       <c r="G23">
-        <v>1.346143908805459</v>
+        <v>1.758630619277653</v>
       </c>
       <c r="H23">
-        <v>0.8327729639410677</v>
+        <v>1.518828684465518</v>
       </c>
       <c r="I23">
-        <v>0.7809480097151962</v>
+        <v>1.620470345225542</v>
       </c>
       <c r="J23">
-        <v>0.1153290585177853</v>
+        <v>0.2175959969618493</v>
       </c>
       <c r="K23">
-        <v>2.231620360907442</v>
+        <v>0.7620914529508696</v>
       </c>
       <c r="L23">
-        <v>0.4330096095706324</v>
+        <v>0.3210532966979684</v>
       </c>
       <c r="M23">
-        <v>0.3270211805910392</v>
+        <v>0.2370378210249626</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8513384033928162</v>
+        <v>0.6705800966165327</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03016125987959839</v>
+        <v>0.08892381909284097</v>
       </c>
       <c r="E24">
-        <v>0.058601322041687</v>
+        <v>0.1378458995701394</v>
       </c>
       <c r="F24">
-        <v>1.46747190666531</v>
+        <v>2.42302681897327</v>
       </c>
       <c r="G24">
-        <v>1.24766996034279</v>
+        <v>1.748851490045695</v>
       </c>
       <c r="H24">
-        <v>0.7995539377835286</v>
+        <v>1.52193000634054</v>
       </c>
       <c r="I24">
-        <v>0.786359920787703</v>
+        <v>1.632727776826798</v>
       </c>
       <c r="J24">
-        <v>0.1153743292420355</v>
+        <v>0.2176471388725556</v>
       </c>
       <c r="K24">
-        <v>1.901734006945418</v>
+        <v>0.6710268622722708</v>
       </c>
       <c r="L24">
-        <v>0.3728473139601789</v>
+        <v>0.3072337650922634</v>
       </c>
       <c r="M24">
-        <v>0.2812727058166544</v>
+        <v>0.22600508084561</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.703472533925094</v>
+        <v>0.6339567698218218</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02809028500251287</v>
+        <v>0.08870762653446107</v>
       </c>
       <c r="E25">
-        <v>0.05862774277999072</v>
+        <v>0.1381406454595373</v>
       </c>
       <c r="F25">
-        <v>1.378030710985655</v>
+        <v>2.422453443993533</v>
       </c>
       <c r="G25">
-        <v>1.151848879134846</v>
+        <v>1.741605557161023</v>
       </c>
       <c r="H25">
-        <v>0.7692866112850254</v>
+        <v>1.527505969003428</v>
       </c>
       <c r="I25">
-        <v>0.7972855917998345</v>
+        <v>1.648120433597718</v>
       </c>
       <c r="J25">
-        <v>0.1155229350510627</v>
+        <v>0.2177348547038669</v>
       </c>
       <c r="K25">
-        <v>1.550987000060758</v>
+        <v>0.5733037300140325</v>
       </c>
       <c r="L25">
-        <v>0.3095445948355007</v>
+        <v>0.2928136657487954</v>
       </c>
       <c r="M25">
-        <v>0.2328695097663207</v>
+        <v>0.2144342059729638</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6077856373797204</v>
+        <v>0.5961545379720405</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08858407273058155</v>
+        <v>0.02662908919121776</v>
       </c>
       <c r="E2">
-        <v>0.1383886882530991</v>
+        <v>0.05871123882621021</v>
       </c>
       <c r="F2">
-        <v>2.425425980498446</v>
+        <v>1.320110525730016</v>
       </c>
       <c r="G2">
-        <v>1.739103674548488</v>
+        <v>1.088942238152939</v>
       </c>
       <c r="H2">
-        <v>1.533532072520757</v>
+        <v>0.7512010848452917</v>
       </c>
       <c r="I2">
-        <v>1.661324305719521</v>
+        <v>0.8092939795081833</v>
       </c>
       <c r="J2">
-        <v>0.2178276543611997</v>
+        <v>0.1157105326157684</v>
       </c>
       <c r="K2">
-        <v>0.501783247074485</v>
+        <v>1.295777760144972</v>
       </c>
       <c r="L2">
-        <v>0.2826155600626947</v>
+        <v>0.2640128637113719</v>
       </c>
       <c r="M2">
-        <v>0.2062002548140995</v>
+        <v>0.1978652599601887</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5905500464506019</v>
+        <v>0.5241902458505479</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08852275330679227</v>
+        <v>0.02567137815047538</v>
       </c>
       <c r="E3">
-        <v>0.1385762266425049</v>
+        <v>0.05880411911055239</v>
       </c>
       <c r="F3">
-        <v>2.429558851590372</v>
+        <v>1.285265872150035</v>
       </c>
       <c r="G3">
-        <v>1.739172392453639</v>
+        <v>1.050495757837467</v>
       </c>
       <c r="H3">
-        <v>1.538815280680907</v>
+        <v>0.7413011981067967</v>
       </c>
       <c r="I3">
-        <v>1.671441036884428</v>
+        <v>0.8197182852897278</v>
       </c>
       <c r="J3">
-        <v>0.2179082631518376</v>
+        <v>0.1158831855610654</v>
       </c>
       <c r="K3">
-        <v>0.4535836331517089</v>
+        <v>1.124123597889422</v>
       </c>
       <c r="L3">
-        <v>0.2759665249228505</v>
+        <v>0.2336973566767284</v>
       </c>
       <c r="M3">
-        <v>0.2007994489899332</v>
+        <v>0.1744590487686111</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5802164792265927</v>
+        <v>0.4803207243217429</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08849622883738384</v>
+        <v>0.02509734650720929</v>
       </c>
       <c r="E4">
-        <v>0.1387009929940231</v>
+        <v>0.05887799055697918</v>
       </c>
       <c r="F4">
-        <v>2.433141834604491</v>
+        <v>1.265881464057621</v>
       </c>
       <c r="G4">
-        <v>1.740084023668345</v>
+        <v>1.028777502796061</v>
       </c>
       <c r="H4">
-        <v>1.542651244385269</v>
+        <v>0.7363054999998155</v>
       </c>
       <c r="I4">
-        <v>1.678229608420406</v>
+        <v>0.8271895620380114</v>
       </c>
       <c r="J4">
-        <v>0.2179665382503924</v>
+        <v>0.116010706646879</v>
       </c>
       <c r="K4">
-        <v>0.424123304830573</v>
+        <v>1.019192157072723</v>
       </c>
       <c r="L4">
-        <v>0.2720137689323252</v>
+        <v>0.215311574276015</v>
       </c>
       <c r="M4">
-        <v>0.1975723632342508</v>
+        <v>0.1602198084297264</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.576068547328461</v>
+        <v>0.4625150163569458</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08848822963513214</v>
+        <v>0.02486667432885881</v>
       </c>
       <c r="E5">
-        <v>0.1387542589701244</v>
+        <v>0.05891218558381728</v>
       </c>
       <c r="F5">
-        <v>2.434864944551585</v>
+        <v>1.258464906504585</v>
       </c>
       <c r="G5">
-        <v>1.740674103860016</v>
+        <v>1.020377387208484</v>
       </c>
       <c r="H5">
-        <v>1.544363409863308</v>
+        <v>0.7345309503786694</v>
       </c>
       <c r="I5">
-        <v>1.681141147197813</v>
+        <v>0.8304954107084228</v>
       </c>
       <c r="J5">
-        <v>0.2179925006093075</v>
+        <v>0.1160679551480932</v>
       </c>
       <c r="K5">
-        <v>0.4121521929483833</v>
+        <v>0.9765245814403443</v>
       </c>
       <c r="L5">
-        <v>0.2704357263824591</v>
+        <v>0.2078712385272894</v>
       </c>
       <c r="M5">
-        <v>0.1962798022966084</v>
+        <v>0.1544472387043108</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5753836089611326</v>
+        <v>0.4595624789045019</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08848707143339318</v>
+        <v>0.02482856023216051</v>
       </c>
       <c r="E6">
-        <v>0.1387632501991482</v>
+        <v>0.05891810681180587</v>
       </c>
       <c r="F6">
-        <v>2.435166955420542</v>
+        <v>1.257261907071495</v>
       </c>
       <c r="G6">
-        <v>1.740785286845338</v>
+        <v>1.01900905728013</v>
       </c>
       <c r="H6">
-        <v>1.54465671464763</v>
+        <v>0.7342517542176523</v>
       </c>
       <c r="I6">
-        <v>1.681633374649294</v>
+        <v>0.8310598968059644</v>
       </c>
       <c r="J6">
-        <v>0.2179969456063393</v>
+        <v>0.1160777767830563</v>
       </c>
       <c r="K6">
-        <v>0.4101664773122593</v>
+        <v>0.9694445943832193</v>
       </c>
       <c r="L6">
-        <v>0.2701756739625694</v>
+        <v>0.2066387685116808</v>
       </c>
       <c r="M6">
-        <v>0.196066536047681</v>
+        <v>0.1534904313704821</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5801602827856414</v>
+        <v>0.4800803113841141</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08849610956337983</v>
+        <v>0.02509422276211026</v>
       </c>
       <c r="E7">
-        <v>0.1387017015420337</v>
+        <v>0.0588784353361661</v>
       </c>
       <c r="F7">
-        <v>2.433164007941059</v>
+        <v>1.265779516338362</v>
       </c>
       <c r="G7">
-        <v>1.740091096724328</v>
+        <v>1.028662424264894</v>
       </c>
       <c r="H7">
-        <v>1.542673731904699</v>
+        <v>0.7362805242240995</v>
       </c>
       <c r="I7">
-        <v>1.678268286671177</v>
+        <v>0.8272330983685485</v>
       </c>
       <c r="J7">
-        <v>0.2179668794109411</v>
+        <v>0.1160114574901279</v>
       </c>
       <c r="K7">
-        <v>0.4239617191657317</v>
+        <v>1.018616382081916</v>
       </c>
       <c r="L7">
-        <v>0.2719923542070006</v>
+        <v>0.2152110274939076</v>
       </c>
       <c r="M7">
-        <v>0.1975548400395404</v>
+        <v>0.1601418400434476</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6017913432446562</v>
+        <v>0.5712703837662616</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08856062768450634</v>
+        <v>0.02629579149874672</v>
       </c>
       <c r="E8">
-        <v>0.1384513580969952</v>
+        <v>0.05873967810673908</v>
       </c>
       <c r="F8">
-        <v>2.426634107721767</v>
+        <v>1.307664731144982</v>
       </c>
       <c r="G8">
-        <v>1.738946885485078</v>
+        <v>1.075278835404092</v>
       </c>
       <c r="H8">
-        <v>1.535230902027976</v>
+        <v>0.7475559980246373</v>
       </c>
       <c r="I8">
-        <v>1.66469287880809</v>
+        <v>0.812661111319283</v>
       </c>
       <c r="J8">
-        <v>0.2178536297675553</v>
+        <v>0.115765518879444</v>
       </c>
       <c r="K8">
-        <v>0.4851363476130643</v>
+        <v>1.236479921871904</v>
       </c>
       <c r="L8">
-        <v>0.2802960965557872</v>
+        <v>0.2535094283849872</v>
       </c>
       <c r="M8">
-        <v>0.2043196454051639</v>
+        <v>0.1897653399921744</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6461706485561933</v>
+        <v>0.7530111182458654</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08877494113198736</v>
+        <v>0.02877697020610626</v>
       </c>
       <c r="E9">
-        <v>0.1380365518848408</v>
+        <v>0.05860836545092829</v>
       </c>
       <c r="F9">
-        <v>2.422119327678516</v>
+        <v>1.406850306522912</v>
       </c>
       <c r="G9">
-        <v>1.74360580735906</v>
+        <v>1.182856425763291</v>
       </c>
       <c r="H9">
-        <v>1.52532951122798</v>
+        <v>0.778792656807326</v>
       </c>
       <c r="I9">
-        <v>1.642645068646146</v>
+        <v>0.7929633180736104</v>
       </c>
       <c r="J9">
-        <v>0.2177009397258551</v>
+        <v>0.1154602612642552</v>
       </c>
       <c r="K9">
-        <v>0.6061547364183468</v>
+        <v>1.66857967859309</v>
       </c>
       <c r="L9">
-        <v>0.2976060415829238</v>
+        <v>0.3306823717630039</v>
       </c>
       <c r="M9">
-        <v>0.2182876584109259</v>
+        <v>0.249064389518221</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6799539694451084</v>
+        <v>0.8889270817365116</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08898532985164209</v>
+        <v>0.03069768937632844</v>
       </c>
       <c r="E10">
-        <v>0.1377779450797203</v>
+        <v>0.05860882811474211</v>
       </c>
       <c r="F10">
-        <v>2.423853590564505</v>
+        <v>1.491754768180925</v>
       </c>
       <c r="G10">
-        <v>1.751245561633638</v>
+        <v>1.273514477976207</v>
       </c>
       <c r="H10">
-        <v>1.520912779706535</v>
+        <v>0.8081029476864217</v>
       </c>
       <c r="I10">
-        <v>1.62923010860451</v>
+        <v>0.7844699066304415</v>
       </c>
       <c r="J10">
-        <v>0.2176307061188485</v>
+        <v>0.1153537931882145</v>
       </c>
       <c r="K10">
-        <v>0.6957041727360433</v>
+        <v>1.990805492167453</v>
       </c>
       <c r="L10">
-        <v>0.3109464729559335</v>
+        <v>0.389036844680092</v>
       </c>
       <c r="M10">
-        <v>0.2289737775409719</v>
+        <v>0.29360676917657</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6955751953559002</v>
+        <v>0.9514259897994748</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08909241799818091</v>
+        <v>0.03159825991271248</v>
       </c>
       <c r="E11">
-        <v>0.1376702679996811</v>
+        <v>0.058632921814331</v>
       </c>
       <c r="F11">
-        <v>2.425739042971031</v>
+        <v>1.533388375041497</v>
       </c>
       <c r="G11">
-        <v>1.755638829520052</v>
+        <v>1.317707746296236</v>
       </c>
       <c r="H11">
-        <v>1.51952335590093</v>
+        <v>0.8230111194845335</v>
       </c>
       <c r="I11">
-        <v>1.623730792392571</v>
+        <v>0.7820402801739448</v>
       </c>
       <c r="J11">
-        <v>0.2176077914787058</v>
+        <v>0.115333463709181</v>
       </c>
       <c r="K11">
-        <v>0.7365802532454495</v>
+        <v>2.138864401430681</v>
       </c>
       <c r="L11">
-        <v>0.3171501301179518</v>
+        <v>0.4160387896412345</v>
       </c>
       <c r="M11">
-        <v>0.2339263789023391</v>
+        <v>0.3141399236062128</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7015265606635239</v>
+        <v>0.975202173621966</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08913459579116889</v>
+        <v>0.03194366529969628</v>
       </c>
       <c r="E12">
-        <v>0.1376309224017853</v>
+        <v>0.05864574982093163</v>
       </c>
       <c r="F12">
-        <v>2.426610614251643</v>
+        <v>1.54962260211218</v>
       </c>
       <c r="G12">
-        <v>1.757434554536417</v>
+        <v>1.334905906812025</v>
       </c>
       <c r="H12">
-        <v>1.51908626698301</v>
+        <v>0.8289004478495201</v>
       </c>
       <c r="I12">
-        <v>1.621735015129126</v>
+        <v>0.7813388184533707</v>
       </c>
       <c r="J12">
-        <v>0.2176004074895257</v>
+        <v>0.115330047124873</v>
       </c>
       <c r="K12">
-        <v>0.7520787699467917</v>
+        <v>2.195181953086944</v>
       </c>
       <c r="L12">
-        <v>0.3195186339691958</v>
+        <v>0.4263379118452661</v>
       </c>
       <c r="M12">
-        <v>0.2358148521628607</v>
+        <v>0.3219593697930208</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7002432359065551</v>
+        <v>0.9700764745253139</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08912543990872734</v>
+        <v>0.03186907235185998</v>
       </c>
       <c r="E13">
-        <v>0.1376393326633233</v>
+        <v>0.05864281769423541</v>
       </c>
       <c r="F13">
-        <v>2.426415898256138</v>
+        <v>1.546104836323622</v>
       </c>
       <c r="G13">
-        <v>1.757041936762221</v>
+        <v>1.331180728903121</v>
       </c>
       <c r="H13">
-        <v>1.519176442170618</v>
+        <v>0.8276209329049777</v>
       </c>
       <c r="I13">
-        <v>1.622160986461509</v>
+        <v>0.781479961757654</v>
       </c>
       <c r="J13">
-        <v>0.2176019403376444</v>
+        <v>0.1153305883841629</v>
       </c>
       <c r="K13">
-        <v>0.7487400209193993</v>
+        <v>2.183041155386718</v>
       </c>
       <c r="L13">
-        <v>0.3190076769514434</v>
+        <v>0.4241163746955294</v>
       </c>
       <c r="M13">
-        <v>0.2354075579775383</v>
+        <v>0.3202732706140381</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6960640998520091</v>
+        <v>0.9533798048803419</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08909585546738441</v>
+        <v>0.03162658565588572</v>
       </c>
       <c r="E14">
-        <v>0.1376670023865554</v>
+        <v>0.05863390128446966</v>
       </c>
       <c r="F14">
-        <v>2.425807589800982</v>
+        <v>1.534714371098389</v>
       </c>
       <c r="G14">
-        <v>1.755783917070488</v>
+        <v>1.319113135171733</v>
       </c>
       <c r="H14">
-        <v>1.519485611900734</v>
+        <v>0.8234906440899294</v>
       </c>
       <c r="I14">
-        <v>1.623564861379968</v>
+        <v>0.7819781154067087</v>
       </c>
       <c r="J14">
-        <v>0.2176071581071621</v>
+        <v>0.1153330953343925</v>
       </c>
       <c r="K14">
-        <v>0.7378549346011596</v>
+        <v>2.143492420500422</v>
       </c>
       <c r="L14">
-        <v>0.3173446018731312</v>
+        <v>0.4168845690498415</v>
       </c>
       <c r="M14">
-        <v>0.234081484250531</v>
+        <v>0.3147823220616459</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6935089266150669</v>
+        <v>0.9431672330245817</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08907794555880244</v>
+        <v>0.03147864233475417</v>
       </c>
       <c r="E15">
-        <v>0.1376841369354864</v>
+        <v>0.05862893067674613</v>
       </c>
       <c r="F15">
-        <v>2.425455503755757</v>
+        <v>1.527799499658499</v>
       </c>
       <c r="G15">
-        <v>1.755030548531096</v>
+        <v>1.311782897845092</v>
       </c>
       <c r="H15">
-        <v>1.519686583015385</v>
+        <v>0.8209930330395139</v>
       </c>
       <c r="I15">
-        <v>1.624436064081259</v>
+        <v>0.7823120988001548</v>
       </c>
       <c r="J15">
-        <v>0.217610522392512</v>
+        <v>0.1153351961384264</v>
       </c>
       <c r="K15">
-        <v>0.7311900485719889</v>
+        <v>2.11930154596368</v>
       </c>
       <c r="L15">
-        <v>0.3163284325022602</v>
+        <v>0.4124647891500217</v>
       </c>
       <c r="M15">
-        <v>0.2332709193042106</v>
+        <v>0.3114248434624471</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6789381395506098</v>
+        <v>0.884857189834662</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08897855948284672</v>
+        <v>0.03063941796503045</v>
       </c>
       <c r="E16">
-        <v>0.1377851822391901</v>
+        <v>0.05860775648783967</v>
       </c>
       <c r="F16">
-        <v>2.423752429220428</v>
+        <v>1.48909746636653</v>
       </c>
       <c r="G16">
-        <v>1.75097693006542</v>
+        <v>1.270688980340339</v>
       </c>
       <c r="H16">
-        <v>1.521016047472287</v>
+        <v>0.8071618133502767</v>
       </c>
       <c r="I16">
-        <v>1.629601636048854</v>
+        <v>0.7846585809884985</v>
       </c>
       <c r="J16">
-        <v>0.2176323849417408</v>
+        <v>0.1153557072137978</v>
       </c>
       <c r="K16">
-        <v>0.6930355959317751</v>
+        <v>1.981162427803554</v>
       </c>
       <c r="L16">
-        <v>0.3105437576304411</v>
+        <v>0.3872820921008184</v>
       </c>
       <c r="M16">
-        <v>0.2286519432095488</v>
+        <v>0.2922707489225616</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6700639264367112</v>
+        <v>0.8492663120611041</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08892049661289647</v>
+        <v>0.03013180382468406</v>
       </c>
       <c r="E17">
-        <v>0.1378497198764148</v>
+        <v>0.05860106622895866</v>
       </c>
       <c r="F17">
-        <v>2.422988432399535</v>
+        <v>1.466150451110991</v>
       </c>
       <c r="G17">
-        <v>1.748725332422111</v>
+        <v>1.246261850773053</v>
       </c>
       <c r="H17">
-        <v>1.521990321189932</v>
+        <v>0.799092132951202</v>
       </c>
       <c r="I17">
-        <v>1.632925011481966</v>
+        <v>0.786473872488088</v>
       </c>
       <c r="J17">
-        <v>0.2176481067256439</v>
+        <v>0.1153756506277581</v>
       </c>
       <c r="K17">
-        <v>0.6696645133274615</v>
+        <v>1.896823171011761</v>
       </c>
       <c r="L17">
-        <v>0.3070295571357775</v>
+        <v>0.3719559751411907</v>
       </c>
       <c r="M17">
-        <v>0.2258416853630578</v>
+        <v>0.280593123236514</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6649835556326025</v>
+        <v>0.8288576215091439</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08888817227431289</v>
+        <v>0.0298423279021236</v>
       </c>
       <c r="E18">
-        <v>0.1378877783248549</v>
+        <v>0.05859944825541785</v>
       </c>
       <c r="F18">
-        <v>2.422652217198106</v>
+        <v>1.453232966961693</v>
       </c>
       <c r="G18">
-        <v>1.747516664844781</v>
+        <v>1.232487422970465</v>
       </c>
       <c r="H18">
-        <v>1.522609037200255</v>
+        <v>0.7945977629858163</v>
       </c>
       <c r="I18">
-        <v>1.634893309500605</v>
+        <v>0.7876521662919842</v>
       </c>
       <c r="J18">
-        <v>0.2176580002431052</v>
+        <v>0.1153897508145736</v>
       </c>
       <c r="K18">
-        <v>0.6562352500783106</v>
+        <v>1.848449970933871</v>
       </c>
       <c r="L18">
-        <v>0.3050209975707503</v>
+        <v>0.3631831905412639</v>
       </c>
       <c r="M18">
-        <v>0.2242339123776134</v>
+        <v>0.2739016049859231</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6632675376305883</v>
+        <v>0.8219579043050089</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08887741223842482</v>
+        <v>0.02974472913290782</v>
       </c>
       <c r="E19">
-        <v>0.1379008254900256</v>
+        <v>0.05859927573544255</v>
       </c>
       <c r="F19">
-        <v>2.422556110577233</v>
+        <v>1.448906556942831</v>
       </c>
       <c r="G19">
-        <v>1.747122265728294</v>
+        <v>1.227869816245047</v>
       </c>
       <c r="H19">
-        <v>1.522828545725389</v>
+        <v>0.7931008012435541</v>
       </c>
       <c r="I19">
-        <v>1.635569494928383</v>
+        <v>0.7880738015736952</v>
       </c>
       <c r="J19">
-        <v>0.2176614963197139</v>
+        <v>0.1153949695887952</v>
       </c>
       <c r="K19">
-        <v>0.6516906069333857</v>
+        <v>1.83209396161007</v>
       </c>
       <c r="L19">
-        <v>0.3043431208924261</v>
+        <v>0.3602199106454265</v>
       </c>
       <c r="M19">
-        <v>0.223691030942561</v>
+        <v>0.2716401422347516</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6710061372120038</v>
+        <v>0.8530484901790771</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08892656664732357</v>
+        <v>0.03018557889564377</v>
       </c>
       <c r="E20">
-        <v>0.1378427526702248</v>
+        <v>0.05860154575716792</v>
       </c>
       <c r="F20">
-        <v>2.42305907937579</v>
+        <v>1.468563865324754</v>
       </c>
       <c r="G20">
-        <v>1.748956076903994</v>
+        <v>1.248833387069013</v>
       </c>
       <c r="H20">
-        <v>1.521880570645308</v>
+        <v>0.7999358182243554</v>
       </c>
       <c r="I20">
-        <v>1.632565356279713</v>
+        <v>0.7862666573162116</v>
       </c>
       <c r="J20">
-        <v>0.2176463451074895</v>
+        <v>0.1153732538438259</v>
       </c>
       <c r="K20">
-        <v>0.6721510456127078</v>
+        <v>1.905786832078945</v>
       </c>
       <c r="L20">
-        <v>0.3074023345100727</v>
+        <v>0.3735830198716741</v>
       </c>
       <c r="M20">
-        <v>0.2261399515463296</v>
+        <v>0.2818335887439645</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6972906413317901</v>
+        <v>0.9582809502136058</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08910450109461721</v>
+        <v>0.03169768657257421</v>
       </c>
       <c r="E21">
-        <v>0.1376588363528342</v>
+        <v>0.05863641740931946</v>
       </c>
       <c r="F21">
-        <v>2.425981988452918</v>
+        <v>1.538047013904816</v>
       </c>
       <c r="G21">
-        <v>1.756149842302818</v>
+        <v>1.322644787475298</v>
       </c>
       <c r="H21">
-        <v>1.519392384834248</v>
+        <v>0.824697043368019</v>
       </c>
       <c r="I21">
-        <v>1.623150156798623</v>
+        <v>0.7818257598545344</v>
       </c>
       <c r="J21">
-        <v>0.2176055904691943</v>
+        <v>0.1153322407205177</v>
       </c>
       <c r="K21">
-        <v>0.7410516190020928</v>
+        <v>2.155101711242452</v>
       </c>
       <c r="L21">
-        <v>0.3178325639937896</v>
+        <v>0.4190066443254068</v>
       </c>
       <c r="M21">
-        <v>0.234470631532993</v>
+        <v>0.31639391048531</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.71467840359918</v>
+        <v>1.027699686381851</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08923026333528128</v>
+        <v>0.03271174758549478</v>
       </c>
       <c r="E22">
-        <v>0.1375469663395443</v>
+        <v>0.05868094809654811</v>
       </c>
       <c r="F22">
-        <v>2.428810801266906</v>
+        <v>1.58620763257143</v>
       </c>
       <c r="G22">
-        <v>1.761621349028673</v>
+        <v>1.373604539437252</v>
       </c>
       <c r="H22">
-        <v>1.518285266314052</v>
+        <v>0.8423109197282486</v>
       </c>
       <c r="I22">
-        <v>1.617502079575864</v>
+        <v>0.7802039165138979</v>
       </c>
       <c r="J22">
-        <v>0.2175864905592597</v>
+        <v>0.1153305260343416</v>
       </c>
       <c r="K22">
-        <v>0.7861963551794418</v>
+        <v>2.319525874205397</v>
       </c>
       <c r="L22">
-        <v>0.3247618484069079</v>
+        <v>0.4491298130796793</v>
       </c>
       <c r="M22">
-        <v>0.2399911108685231</v>
+        <v>0.3392401232385751</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7053792191911441</v>
+        <v>0.990586225866565</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08916227848709113</v>
+        <v>0.03216797364422064</v>
       </c>
       <c r="E23">
-        <v>0.1376059124148543</v>
+        <v>0.05865509435613592</v>
       </c>
       <c r="F23">
-        <v>2.427216994640631</v>
+        <v>1.560239290593941</v>
       </c>
       <c r="G23">
-        <v>1.758630619277653</v>
+        <v>1.346143908805345</v>
       </c>
       <c r="H23">
-        <v>1.518828684465518</v>
+        <v>0.8327729639410677</v>
       </c>
       <c r="I23">
-        <v>1.620470345225542</v>
+        <v>0.7809480097152175</v>
       </c>
       <c r="J23">
-        <v>0.2175959969618493</v>
+        <v>0.1153290585177658</v>
       </c>
       <c r="K23">
-        <v>0.7620914529508696</v>
+        <v>2.231620360907499</v>
       </c>
       <c r="L23">
-        <v>0.3210532966979684</v>
+        <v>0.4330096095706324</v>
       </c>
       <c r="M23">
-        <v>0.2370378210249626</v>
+        <v>0.3270211805910392</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6705800966165327</v>
+        <v>0.8513384033927309</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08892381909284097</v>
+        <v>0.03016125987947404</v>
       </c>
       <c r="E24">
-        <v>0.1378458995701394</v>
+        <v>0.05860132204166446</v>
       </c>
       <c r="F24">
-        <v>2.42302681897327</v>
+        <v>1.467471906665295</v>
       </c>
       <c r="G24">
-        <v>1.748851490045695</v>
+        <v>1.24766996034279</v>
       </c>
       <c r="H24">
-        <v>1.52193000634054</v>
+        <v>0.7995539377835286</v>
       </c>
       <c r="I24">
-        <v>1.632727776826798</v>
+        <v>0.7863599207876888</v>
       </c>
       <c r="J24">
-        <v>0.2176471388725556</v>
+        <v>0.1153743292420497</v>
       </c>
       <c r="K24">
-        <v>0.6710268622722708</v>
+        <v>1.901734006945475</v>
       </c>
       <c r="L24">
-        <v>0.3072337650922634</v>
+        <v>0.3728473139602073</v>
       </c>
       <c r="M24">
-        <v>0.22600508084561</v>
+        <v>0.2812727058166615</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6339567698218218</v>
+        <v>0.7034725339251509</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08870762653446107</v>
+        <v>0.02809028500239563</v>
       </c>
       <c r="E25">
-        <v>0.1381406454595373</v>
+        <v>0.05862774277997795</v>
       </c>
       <c r="F25">
-        <v>2.422453443993533</v>
+        <v>1.378030710985641</v>
       </c>
       <c r="G25">
-        <v>1.741605557161023</v>
+        <v>1.151848879134917</v>
       </c>
       <c r="H25">
-        <v>1.527505969003428</v>
+        <v>0.7692866112851249</v>
       </c>
       <c r="I25">
-        <v>1.648120433597718</v>
+        <v>0.7972855917998203</v>
       </c>
       <c r="J25">
-        <v>0.2177348547038669</v>
+        <v>0.1155229350510734</v>
       </c>
       <c r="K25">
-        <v>0.5733037300140325</v>
+        <v>1.550987000060729</v>
       </c>
       <c r="L25">
-        <v>0.2928136657487954</v>
+        <v>0.309544594835458</v>
       </c>
       <c r="M25">
-        <v>0.2144342059729638</v>
+        <v>0.2328695097662994</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5961545379720405</v>
+        <v>3.357300240140091</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02662908919121776</v>
+        <v>0.0419719829013232</v>
       </c>
       <c r="E2">
-        <v>0.05871123882621021</v>
+        <v>1.182904686030767</v>
       </c>
       <c r="F2">
-        <v>1.320110525730016</v>
+        <v>0.4116750020427631</v>
       </c>
       <c r="G2">
-        <v>1.088942238152939</v>
+        <v>0.3192901493999329</v>
       </c>
       <c r="H2">
-        <v>0.7512010848452917</v>
+        <v>0.0007425996294430082</v>
       </c>
       <c r="I2">
-        <v>0.8092939795081833</v>
+        <v>0.01561719612259482</v>
       </c>
       <c r="J2">
-        <v>0.1157105326157684</v>
+        <v>0.1916472022236633</v>
       </c>
       <c r="K2">
-        <v>1.295777760144972</v>
+        <v>0.9662946904032452</v>
       </c>
       <c r="L2">
-        <v>0.2640128637113719</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1978652599601887</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.365577876940819</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.031301624846719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5241902458505479</v>
+        <v>2.931498965892331</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02567137815047538</v>
+        <v>0.03656853936273308</v>
       </c>
       <c r="E3">
-        <v>0.05880411911055239</v>
+        <v>1.064217768477732</v>
       </c>
       <c r="F3">
-        <v>1.285265872150035</v>
+        <v>0.3624546653160934</v>
       </c>
       <c r="G3">
-        <v>1.050495757837467</v>
+        <v>0.2778408803420973</v>
       </c>
       <c r="H3">
-        <v>0.7413011981067967</v>
+        <v>0.001611791707134769</v>
       </c>
       <c r="I3">
-        <v>0.8197182852897278</v>
+        <v>0.01836854532369614</v>
       </c>
       <c r="J3">
-        <v>0.1158831855610654</v>
+        <v>0.1770779458095433</v>
       </c>
       <c r="K3">
-        <v>1.124123597889422</v>
+        <v>0.8921060140893644</v>
       </c>
       <c r="L3">
-        <v>0.2336973566767284</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1744590487686111</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.192269460160219</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9125968741954011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4803207243217429</v>
+        <v>2.669371480580139</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02509734650720929</v>
+        <v>0.03326004225428392</v>
       </c>
       <c r="E4">
-        <v>0.05887799055697918</v>
+        <v>0.9919596051389306</v>
       </c>
       <c r="F4">
-        <v>1.265881464057621</v>
+        <v>0.3328189957254253</v>
       </c>
       <c r="G4">
-        <v>1.028777502796061</v>
+        <v>0.252886280176142</v>
       </c>
       <c r="H4">
-        <v>0.7363054999998155</v>
+        <v>0.002331172568051487</v>
       </c>
       <c r="I4">
-        <v>0.8271895620380114</v>
+        <v>0.02024300596663053</v>
       </c>
       <c r="J4">
-        <v>0.116010706646879</v>
+        <v>0.1684776541284236</v>
       </c>
       <c r="K4">
-        <v>1.019192157072723</v>
+        <v>0.8483354976616511</v>
       </c>
       <c r="L4">
-        <v>0.215311574276015</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1602198084297264</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.086214251548427</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8414752940510084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4625150163569458</v>
+        <v>2.562371454848289</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02486667432885881</v>
+        <v>0.03194550261647322</v>
       </c>
       <c r="E5">
-        <v>0.05891218558381728</v>
+        <v>0.9649550118190433</v>
       </c>
       <c r="F5">
-        <v>1.258464906504585</v>
+        <v>0.3206106678100866</v>
       </c>
       <c r="G5">
-        <v>1.020377387208484</v>
+        <v>0.2425612159857593</v>
       </c>
       <c r="H5">
-        <v>0.7345309503786694</v>
+        <v>0.002666806384062942</v>
       </c>
       <c r="I5">
-        <v>0.8304954107084228</v>
+        <v>0.02113663121761711</v>
       </c>
       <c r="J5">
-        <v>0.1160679551480932</v>
+        <v>0.1649079577962453</v>
       </c>
       <c r="K5">
-        <v>0.9765245814403443</v>
+        <v>0.8334230745134619</v>
       </c>
       <c r="L5">
-        <v>0.2078712385272894</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1544472387043108</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.044701137882072</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8120240224550059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4595624789045019</v>
+        <v>2.544593824222375</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02482856023216051</v>
+        <v>0.03176615477409683</v>
       </c>
       <c r="E6">
-        <v>0.05891810681180587</v>
+        <v>0.9632908455377986</v>
       </c>
       <c r="F6">
-        <v>1.257261907071495</v>
+        <v>0.3182663420474157</v>
       </c>
       <c r="G6">
-        <v>1.01900905728013</v>
+        <v>0.2405257156496177</v>
       </c>
       <c r="H6">
-        <v>0.7342517542176523</v>
+        <v>0.002723558165461187</v>
       </c>
       <c r="I6">
-        <v>0.8310598968059644</v>
+        <v>0.02139940994062961</v>
       </c>
       <c r="J6">
-        <v>0.1160777767830563</v>
+        <v>0.1641412417269521</v>
       </c>
       <c r="K6">
-        <v>0.9694445943832193</v>
+        <v>0.8340362612312973</v>
       </c>
       <c r="L6">
-        <v>0.2066387685116808</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1534904313704821</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.0398026615795</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8060890701408567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4800803113841141</v>
+        <v>2.667930658785735</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02509422276211026</v>
+        <v>0.03334845540084075</v>
       </c>
       <c r="E7">
-        <v>0.0588784353361661</v>
+        <v>0.999289472990796</v>
       </c>
       <c r="F7">
-        <v>1.265779516338362</v>
+        <v>0.3317674949606655</v>
       </c>
       <c r="G7">
-        <v>1.028662424264894</v>
+        <v>0.2518529763107296</v>
       </c>
       <c r="H7">
-        <v>0.7362805242240995</v>
+        <v>0.002331512338511532</v>
       </c>
       <c r="I7">
-        <v>0.8272330983685485</v>
+        <v>0.0205435311694222</v>
       </c>
       <c r="J7">
-        <v>0.1160114574901279</v>
+        <v>0.1679422007656797</v>
       </c>
       <c r="K7">
-        <v>1.018616382081916</v>
+        <v>0.8565348007685287</v>
       </c>
       <c r="L7">
-        <v>0.2152110274939076</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1601418400434476</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.091098620910088</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.838163507253995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5712703837662616</v>
+        <v>3.210618935430432</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02629579149874672</v>
+        <v>0.04024786696244576</v>
       </c>
       <c r="E8">
-        <v>0.05873967810673908</v>
+        <v>1.152134780707115</v>
       </c>
       <c r="F8">
-        <v>1.307664731144982</v>
+        <v>0.3934067624687785</v>
       </c>
       <c r="G8">
-        <v>1.075278835404092</v>
+        <v>0.3037101302974463</v>
       </c>
       <c r="H8">
-        <v>0.7475559980246373</v>
+        <v>0.0009979101549490998</v>
       </c>
       <c r="I8">
-        <v>0.812661111319283</v>
+        <v>0.01687274566675878</v>
       </c>
       <c r="J8">
-        <v>0.115765518879444</v>
+        <v>0.1859095731131646</v>
       </c>
       <c r="K8">
-        <v>1.236479921871904</v>
+        <v>0.9516479811928491</v>
       </c>
       <c r="L8">
-        <v>0.2535094283849872</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1897653399921744</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.312996321736279</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9861493101779217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7530111182458654</v>
+        <v>4.269963012943833</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02877697020610626</v>
+        <v>0.05367516830035868</v>
       </c>
       <c r="E9">
-        <v>0.05860836545092829</v>
+        <v>1.443002091186088</v>
       </c>
       <c r="F9">
-        <v>1.406850306522912</v>
+        <v>0.5211420693167739</v>
       </c>
       <c r="G9">
-        <v>1.182856425763291</v>
+        <v>0.4115320937086864</v>
       </c>
       <c r="H9">
-        <v>0.778792656807326</v>
+        <v>3.692758212547886E-07</v>
       </c>
       <c r="I9">
-        <v>0.7929633180736104</v>
+        <v>0.01081592041383139</v>
       </c>
       <c r="J9">
-        <v>0.1154602612642552</v>
+        <v>0.2250188522607459</v>
       </c>
       <c r="K9">
-        <v>1.66857967859309</v>
+        <v>1.137715652164118</v>
       </c>
       <c r="L9">
-        <v>0.3306823717630039</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.249064389518221</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.741549684555139</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.29738119359763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8889270817365116</v>
+        <v>5.046172947371758</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03069768937632844</v>
+        <v>0.06431667104818928</v>
       </c>
       <c r="E10">
-        <v>0.05860882811474211</v>
+        <v>1.71276347742716</v>
       </c>
       <c r="F10">
-        <v>1.491754768180925</v>
+        <v>0.613545716781303</v>
       </c>
       <c r="G10">
-        <v>1.273514477976207</v>
+        <v>0.4887310463455492</v>
       </c>
       <c r="H10">
-        <v>0.8081029476864217</v>
+        <v>0.0006030039940965182</v>
       </c>
       <c r="I10">
-        <v>0.7844699066304415</v>
+        <v>0.007656192999426104</v>
       </c>
       <c r="J10">
-        <v>0.1153537931882145</v>
+        <v>0.252998708646814</v>
       </c>
       <c r="K10">
-        <v>1.990805492167453</v>
+        <v>1.324729120671904</v>
       </c>
       <c r="L10">
-        <v>0.389036844680092</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.29360676917657</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.038755353123435</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.520147983839792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9514259897994748</v>
+        <v>5.398720686685863</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03159825991271248</v>
+        <v>0.07524277714419014</v>
       </c>
       <c r="E11">
-        <v>0.058632921814331</v>
+        <v>2.323004578245474</v>
       </c>
       <c r="F11">
-        <v>1.533388375041497</v>
+        <v>0.6107675752836172</v>
       </c>
       <c r="G11">
-        <v>1.317707746296236</v>
+        <v>0.4787017826105</v>
       </c>
       <c r="H11">
-        <v>0.8230111194845335</v>
+        <v>0.01935292017434875</v>
       </c>
       <c r="I11">
-        <v>0.7820402801739448</v>
+        <v>0.007043190786370168</v>
       </c>
       <c r="J11">
-        <v>0.115333463709181</v>
+        <v>0.2418508665576979</v>
       </c>
       <c r="K11">
-        <v>2.138864401430681</v>
+        <v>1.774315904853452</v>
       </c>
       <c r="L11">
-        <v>0.4160387896412345</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3141399236062128</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.984257484920931</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.475828018376347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.975202173621966</v>
+        <v>5.532340081085181</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03194366529969628</v>
+        <v>0.08241167865008237</v>
       </c>
       <c r="E12">
-        <v>0.05864574982093163</v>
+        <v>2.833555488650887</v>
       </c>
       <c r="F12">
-        <v>1.54962260211218</v>
+        <v>0.590126746644394</v>
       </c>
       <c r="G12">
-        <v>1.334905906812025</v>
+        <v>0.4557704236834894</v>
       </c>
       <c r="H12">
-        <v>0.8289004478495201</v>
+        <v>0.05809896619627608</v>
       </c>
       <c r="I12">
-        <v>0.7813388184533707</v>
+        <v>0.006574793047397165</v>
       </c>
       <c r="J12">
-        <v>0.115330047124873</v>
+        <v>0.2272729386549486</v>
       </c>
       <c r="K12">
-        <v>2.195181953086944</v>
+        <v>2.145865739227105</v>
       </c>
       <c r="L12">
-        <v>0.4263379118452661</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3219593697930208</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.867416009376853</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.396828320874306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9700764745253139</v>
+        <v>5.5038280469048</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03186907235185998</v>
+        <v>0.08720430187174344</v>
       </c>
       <c r="E13">
-        <v>0.05864281769423541</v>
+        <v>3.30397381147921</v>
       </c>
       <c r="F13">
-        <v>1.546104836323622</v>
+        <v>0.5526902440190113</v>
       </c>
       <c r="G13">
-        <v>1.331180728903121</v>
+        <v>0.4197672926787135</v>
       </c>
       <c r="H13">
-        <v>0.8276209329049777</v>
+        <v>0.1137932316864578</v>
       </c>
       <c r="I13">
-        <v>0.781479961757654</v>
+        <v>0.006548578177174136</v>
       </c>
       <c r="J13">
-        <v>0.1153305883841629</v>
+        <v>0.2082280744975407</v>
       </c>
       <c r="K13">
-        <v>2.183041155386718</v>
+        <v>2.487265476195432</v>
       </c>
       <c r="L13">
-        <v>0.4241163746955294</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3202732706140381</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.70541022742367</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.28066170088681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9533798048803419</v>
+        <v>5.410286440744642</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03162658565588572</v>
+        <v>0.08952972269668891</v>
       </c>
       <c r="E14">
-        <v>0.05863390128446966</v>
+        <v>3.623319723742156</v>
       </c>
       <c r="F14">
-        <v>1.534714371098389</v>
+        <v>0.5188094794175129</v>
       </c>
       <c r="G14">
-        <v>1.319113135171733</v>
+        <v>0.3886517093222182</v>
       </c>
       <c r="H14">
-        <v>0.8234906440899294</v>
+        <v>0.1630474183176034</v>
       </c>
       <c r="I14">
-        <v>0.7819781154067087</v>
+        <v>0.006807564891162521</v>
       </c>
       <c r="J14">
-        <v>0.1153330953343925</v>
+        <v>0.1928355995547975</v>
       </c>
       <c r="K14">
-        <v>2.143492420500422</v>
+        <v>2.71925634281574</v>
       </c>
       <c r="L14">
-        <v>0.4168845690498415</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3147823220616459</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.574327112862818</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.182447277261645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9431672330245817</v>
+        <v>5.352874517337966</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03147864233475417</v>
+        <v>0.08958115592557192</v>
       </c>
       <c r="E15">
-        <v>0.05862893067674613</v>
+        <v>3.687920428503276</v>
       </c>
       <c r="F15">
-        <v>1.527799499658499</v>
+        <v>0.5066985812032954</v>
       </c>
       <c r="G15">
-        <v>1.311782897845092</v>
+        <v>0.3779443982974868</v>
       </c>
       <c r="H15">
-        <v>0.8209930330395139</v>
+        <v>0.1754861150548237</v>
       </c>
       <c r="I15">
-        <v>0.7823120988001548</v>
+        <v>0.007102129388081302</v>
       </c>
       <c r="J15">
-        <v>0.1153351961384264</v>
+        <v>0.1879731155947155</v>
       </c>
       <c r="K15">
-        <v>2.11930154596368</v>
+        <v>2.767842845667403</v>
       </c>
       <c r="L15">
-        <v>0.4124647891500217</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3114248434624471</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.534890844038443</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.149539041907161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.884857189834662</v>
+        <v>5.023197472432344</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03063941796503045</v>
+        <v>0.0839229487330897</v>
       </c>
       <c r="E16">
-        <v>0.05860775648783967</v>
+        <v>3.466758492093504</v>
       </c>
       <c r="F16">
-        <v>1.48909746636653</v>
+        <v>0.4731667948732934</v>
       </c>
       <c r="G16">
-        <v>1.270688980340339</v>
+        <v>0.3507784159089766</v>
       </c>
       <c r="H16">
-        <v>0.8071618133502767</v>
+        <v>0.162251768930588</v>
       </c>
       <c r="I16">
-        <v>0.7846585809884985</v>
+        <v>0.008468222567086237</v>
       </c>
       <c r="J16">
-        <v>0.1153557072137978</v>
+        <v>0.1790444316190047</v>
       </c>
       <c r="K16">
-        <v>1.981162427803554</v>
+        <v>2.608614073637085</v>
       </c>
       <c r="L16">
-        <v>0.3872820921008184</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2922707489225616</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.447460051798828</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.073023598951892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8492663120611041</v>
+        <v>4.82080092386019</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03013180382468406</v>
+        <v>0.07835768599213822</v>
       </c>
       <c r="E17">
-        <v>0.05860106622895866</v>
+        <v>3.125026512985187</v>
       </c>
       <c r="F17">
-        <v>1.466150451110991</v>
+        <v>0.4657134014668358</v>
       </c>
       <c r="G17">
-        <v>1.246261850773053</v>
+        <v>0.3466578168176682</v>
       </c>
       <c r="H17">
-        <v>0.799092132951202</v>
+        <v>0.1242275854206412</v>
       </c>
       <c r="I17">
-        <v>0.786473872488088</v>
+        <v>0.009460476176727184</v>
       </c>
       <c r="J17">
-        <v>0.1153756506277581</v>
+        <v>0.1805027820359868</v>
       </c>
       <c r="K17">
-        <v>1.896823171011761</v>
+        <v>2.362855727406568</v>
       </c>
       <c r="L17">
-        <v>0.3719559751411907</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.280593123236514</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.449491229203602</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.067176206778498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8288576215091439</v>
+        <v>4.704312032258031</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0298423279021236</v>
+        <v>0.07227150530745519</v>
       </c>
       <c r="E18">
-        <v>0.05859944825541785</v>
+        <v>2.659496208800789</v>
       </c>
       <c r="F18">
-        <v>1.453232966961693</v>
+        <v>0.4803972215391852</v>
       </c>
       <c r="G18">
-        <v>1.232487422970465</v>
+        <v>0.3627316410675689</v>
       </c>
       <c r="H18">
-        <v>0.7945977629858163</v>
+        <v>0.07134378827429799</v>
       </c>
       <c r="I18">
-        <v>0.7876521662919842</v>
+        <v>0.00982987590327955</v>
       </c>
       <c r="J18">
-        <v>0.1153897508145736</v>
+        <v>0.1914148518248169</v>
       </c>
       <c r="K18">
-        <v>1.848449970933871</v>
+        <v>2.02375673029573</v>
       </c>
       <c r="L18">
-        <v>0.3631831905412639</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2739016049859231</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.525666579313764</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.123975349231728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8219579043050089</v>
+        <v>4.664923387577232</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02974472913290782</v>
+        <v>0.06662684116344764</v>
       </c>
       <c r="E19">
-        <v>0.05859927573544255</v>
+        <v>2.189658241938943</v>
       </c>
       <c r="F19">
-        <v>1.448906556942831</v>
+        <v>0.5106467943478492</v>
       </c>
       <c r="G19">
-        <v>1.227869816245047</v>
+        <v>0.3931741889253999</v>
       </c>
       <c r="H19">
-        <v>0.7931008012435541</v>
+        <v>0.02617072111289787</v>
       </c>
       <c r="I19">
-        <v>0.7880738015736952</v>
+        <v>0.01014533526847572</v>
       </c>
       <c r="J19">
-        <v>0.1153949695887952</v>
+        <v>0.2085567562509425</v>
       </c>
       <c r="K19">
-        <v>1.83209396161007</v>
+        <v>1.685524229780214</v>
       </c>
       <c r="L19">
-        <v>0.3602199106454265</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2716401422347516</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.668241958842231</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.224329684287511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8530484901790771</v>
+        <v>4.842480793414211</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03018557889564377</v>
+        <v>0.06187942047947104</v>
       </c>
       <c r="E20">
-        <v>0.05860154575716792</v>
+        <v>1.668780464422952</v>
       </c>
       <c r="F20">
-        <v>1.468563865324754</v>
+        <v>0.5860407059933479</v>
       </c>
       <c r="G20">
-        <v>1.248833387069013</v>
+        <v>0.4652291899863741</v>
       </c>
       <c r="H20">
-        <v>0.7999358182243554</v>
+        <v>0.0003454025437745756</v>
       </c>
       <c r="I20">
-        <v>0.7862666573162116</v>
+        <v>0.00926473985455889</v>
       </c>
       <c r="J20">
-        <v>0.1153732538438259</v>
+        <v>0.2438978904771716</v>
       </c>
       <c r="K20">
-        <v>1.905786832078945</v>
+        <v>1.304506327857283</v>
       </c>
       <c r="L20">
-        <v>0.3735830198716741</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2818335887439645</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.976944863604899</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.451139445578974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9582809502136058</v>
+        <v>5.437770098633791</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03169768657257421</v>
+        <v>0.06900486983696652</v>
       </c>
       <c r="E21">
-        <v>0.05863641740931946</v>
+        <v>1.796182166460184</v>
       </c>
       <c r="F21">
-        <v>1.538047013904816</v>
+        <v>0.6671539706181022</v>
       </c>
       <c r="G21">
-        <v>1.322644787475298</v>
+        <v>0.5346255371606645</v>
       </c>
       <c r="H21">
-        <v>0.824697043368019</v>
+        <v>0.001037831638372233</v>
       </c>
       <c r="I21">
-        <v>0.7818257598545344</v>
+        <v>0.00701479485865697</v>
       </c>
       <c r="J21">
-        <v>0.1153322407205177</v>
+        <v>0.2708035432931553</v>
       </c>
       <c r="K21">
-        <v>2.155101711242452</v>
+        <v>1.390602511027524</v>
       </c>
       <c r="L21">
-        <v>0.4190066443254068</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.31639391048531</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.237917999428845</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.654971256304378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.027699686381851</v>
+        <v>5.826744263642979</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03271174758549478</v>
+        <v>0.07387337421121742</v>
       </c>
       <c r="E22">
-        <v>0.05868094809654811</v>
+        <v>1.894753474862924</v>
       </c>
       <c r="F22">
-        <v>1.58620763257143</v>
+        <v>0.7197119886938168</v>
       </c>
       <c r="G22">
-        <v>1.373604539437252</v>
+        <v>0.5793966606460685</v>
       </c>
       <c r="H22">
-        <v>0.8423109197282486</v>
+        <v>0.001826336512820215</v>
       </c>
       <c r="I22">
-        <v>0.7802039165138979</v>
+        <v>0.005473700055964592</v>
       </c>
       <c r="J22">
-        <v>0.1153305260343416</v>
+        <v>0.2881256887009442</v>
       </c>
       <c r="K22">
-        <v>2.319525874205397</v>
+        <v>1.455637276668497</v>
       </c>
       <c r="L22">
-        <v>0.4491298130796793</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3392401232385751</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.390181819299499</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.786394085870654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.990586225866565</v>
+        <v>5.619127249953237</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03216797364422064</v>
+        <v>0.07114573617455022</v>
       </c>
       <c r="E23">
-        <v>0.05865509435613592</v>
+        <v>1.832634053681303</v>
       </c>
       <c r="F23">
-        <v>1.560239290593941</v>
+        <v>0.6925699495150752</v>
       </c>
       <c r="G23">
-        <v>1.346143908805345</v>
+        <v>0.5564294030506716</v>
       </c>
       <c r="H23">
-        <v>0.8327729639410677</v>
+        <v>0.001373143103070795</v>
       </c>
       <c r="I23">
-        <v>0.7809480097152175</v>
+        <v>0.005945649686717402</v>
       </c>
       <c r="J23">
-        <v>0.1153290585177658</v>
+        <v>0.2793775512362942</v>
       </c>
       <c r="K23">
-        <v>2.231620360907499</v>
+        <v>1.410025857056127</v>
       </c>
       <c r="L23">
-        <v>0.4330096095706324</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3270211805910392</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.30224434479436</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.719258180944308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8513384033927309</v>
+        <v>4.83278725359844</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03016125987947404</v>
+        <v>0.06105622878011019</v>
       </c>
       <c r="E24">
-        <v>0.05860132204166446</v>
+        <v>1.613453268453497</v>
       </c>
       <c r="F24">
-        <v>1.467471906665295</v>
+        <v>0.5903948267504191</v>
       </c>
       <c r="G24">
-        <v>1.24766996034279</v>
+        <v>0.4698427427328653</v>
       </c>
       <c r="H24">
-        <v>0.7995539377835286</v>
+        <v>0.0002363099876387942</v>
       </c>
       <c r="I24">
-        <v>0.7863599207876888</v>
+        <v>0.008750449150938699</v>
       </c>
       <c r="J24">
-        <v>0.1153743292420497</v>
+        <v>0.2465049185469752</v>
       </c>
       <c r="K24">
-        <v>1.901734006945475</v>
+        <v>1.258413196404391</v>
       </c>
       <c r="L24">
-        <v>0.3728473139602073</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2812727058166615</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.980803573998941</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.466365807598379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7034725339251509</v>
+        <v>3.983812736308209</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02809028500239563</v>
+        <v>0.05022479417318237</v>
       </c>
       <c r="E25">
-        <v>0.05862774277997795</v>
+        <v>1.377996498977069</v>
       </c>
       <c r="F25">
-        <v>1.378030710985641</v>
+        <v>0.4843457822497967</v>
       </c>
       <c r="G25">
-        <v>1.151848879134917</v>
+        <v>0.3801925164257511</v>
       </c>
       <c r="H25">
-        <v>0.7692866112851249</v>
+        <v>7.597976656303906E-05</v>
       </c>
       <c r="I25">
-        <v>0.7972855917998203</v>
+        <v>0.01275039306903647</v>
       </c>
       <c r="J25">
-        <v>0.1155229350510734</v>
+        <v>0.21321416164281</v>
       </c>
       <c r="K25">
-        <v>1.550987000060729</v>
+        <v>1.101533066171413</v>
       </c>
       <c r="L25">
-        <v>0.309544594835458</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2328695097662994</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.635214924027167</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.206028785955596</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357300240140091</v>
+        <v>3.360238195050613</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0419719829013232</v>
+        <v>0.03720244338978063</v>
       </c>
       <c r="E2">
-        <v>1.182904686030767</v>
+        <v>0.8234853600865932</v>
       </c>
       <c r="F2">
-        <v>0.4116750020427631</v>
+        <v>0.4560395047380226</v>
       </c>
       <c r="G2">
-        <v>0.3192901493999329</v>
+        <v>0.3650203423450478</v>
       </c>
       <c r="H2">
-        <v>0.0007425996294430082</v>
+        <v>0.0003681007903558742</v>
       </c>
       <c r="I2">
-        <v>0.01561719612259482</v>
+        <v>0.01084779779465883</v>
       </c>
       <c r="J2">
-        <v>0.1916472022236633</v>
+        <v>0.2622519099026732</v>
       </c>
       <c r="K2">
-        <v>0.9662946904032452</v>
+        <v>0.5957670192173765</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2054526238849803</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2427017951296406</v>
       </c>
       <c r="N2">
-        <v>1.365577876940819</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.119108022711202</v>
       </c>
       <c r="Q2">
-        <v>1.031301624846719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.180159538397731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931498965892331</v>
+        <v>2.93282277642777</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03656853936273308</v>
+        <v>0.03226821356673071</v>
       </c>
       <c r="E3">
-        <v>1.064217768477732</v>
+        <v>0.7394528971263412</v>
       </c>
       <c r="F3">
-        <v>0.3624546653160934</v>
+        <v>0.4032781154405143</v>
       </c>
       <c r="G3">
-        <v>0.2778408803420973</v>
+        <v>0.3171950527679996</v>
       </c>
       <c r="H3">
-        <v>0.001611791707134769</v>
+        <v>0.0009496417077175939</v>
       </c>
       <c r="I3">
-        <v>0.01836854532369614</v>
+        <v>0.01273540318759636</v>
       </c>
       <c r="J3">
-        <v>0.1770779458095433</v>
+        <v>0.2460059880890952</v>
       </c>
       <c r="K3">
-        <v>0.8921060140893644</v>
+        <v>0.5576259641235808</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1838731241777012</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.237529671209245</v>
       </c>
       <c r="N3">
-        <v>1.192269460160219</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.9710284428749105</v>
       </c>
       <c r="Q3">
-        <v>0.9125968741954011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.049716067918297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669371480580139</v>
+        <v>2.669579114227588</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03326004225428392</v>
+        <v>0.02925139834680124</v>
       </c>
       <c r="E4">
-        <v>0.9919596051389306</v>
+        <v>0.6885374751320441</v>
       </c>
       <c r="F4">
-        <v>0.3328189957254253</v>
+        <v>0.3713712619763072</v>
       </c>
       <c r="G4">
-        <v>0.252886280176142</v>
+        <v>0.2883187001534822</v>
       </c>
       <c r="H4">
-        <v>0.002331172568051487</v>
+        <v>0.00145646479447635</v>
       </c>
       <c r="I4">
-        <v>0.02024300596663053</v>
+        <v>0.01403881011817099</v>
       </c>
       <c r="J4">
-        <v>0.1684776541284236</v>
+        <v>0.2361941577068336</v>
       </c>
       <c r="K4">
-        <v>0.8483354976616511</v>
+        <v>0.535708734888857</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1718639979424843</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2347469722472866</v>
       </c>
       <c r="N4">
-        <v>1.086214251548427</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.8805377268528218</v>
       </c>
       <c r="Q4">
-        <v>0.8414752940510084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9710550155167823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.562371454848289</v>
+        <v>2.56209520150469</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03194550261647322</v>
+        <v>0.02804843536229384</v>
       </c>
       <c r="E5">
-        <v>0.9649550118190433</v>
+        <v>0.6693654741048363</v>
       </c>
       <c r="F5">
-        <v>0.3206106678100866</v>
+        <v>0.358255989007823</v>
       </c>
       <c r="G5">
-        <v>0.2425612159857593</v>
+        <v>0.2764335143190237</v>
       </c>
       <c r="H5">
-        <v>0.002666806384062942</v>
+        <v>0.001698169242429604</v>
       </c>
       <c r="I5">
-        <v>0.02113663121761711</v>
+        <v>0.01470351850141949</v>
       </c>
       <c r="J5">
-        <v>0.1649079577962453</v>
+        <v>0.2321059252519433</v>
       </c>
       <c r="K5">
-        <v>0.8334230745134619</v>
+        <v>0.5284787335306902</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1676433854618899</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2343393124612092</v>
       </c>
       <c r="N5">
-        <v>1.044701137882072</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.8449331005941474</v>
       </c>
       <c r="Q5">
-        <v>0.8120240224550059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.938578085966185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544593824222375</v>
+        <v>2.544233684927178</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03176615477409683</v>
+        <v>0.02787761717701898</v>
       </c>
       <c r="E6">
-        <v>0.9632908455377986</v>
+        <v>0.6679197842670277</v>
       </c>
       <c r="F6">
-        <v>0.3182663420474157</v>
+        <v>0.3558107044518692</v>
       </c>
       <c r="G6">
-        <v>0.2405257156496177</v>
+        <v>0.2741889162688835</v>
       </c>
       <c r="H6">
-        <v>0.002723558165461187</v>
+        <v>0.001740182288784538</v>
       </c>
       <c r="I6">
-        <v>0.02139940994062961</v>
+        <v>0.01494563418574479</v>
       </c>
       <c r="J6">
-        <v>0.1641412417269521</v>
+        <v>0.2312728135686939</v>
       </c>
       <c r="K6">
-        <v>0.8340362612312973</v>
+        <v>0.5289409031797874</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1674105761862137</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2350529490937134</v>
       </c>
       <c r="N6">
-        <v>1.0398026615795</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.840458305684848</v>
       </c>
       <c r="Q6">
-        <v>0.8060890701408567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9322900434075621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.667930658785735</v>
+        <v>2.668125467443417</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03334845540084075</v>
+        <v>0.02942701937151071</v>
       </c>
       <c r="E7">
-        <v>0.999289472990796</v>
+        <v>0.6923309702642797</v>
       </c>
       <c r="F7">
-        <v>0.3317674949606655</v>
+        <v>0.3694211689401712</v>
       </c>
       <c r="G7">
-        <v>0.2518529763107296</v>
+        <v>0.2905291635502181</v>
       </c>
       <c r="H7">
-        <v>0.002331512338511532</v>
+        <v>0.001460763674222099</v>
       </c>
       <c r="I7">
-        <v>0.0205435311694222</v>
+        <v>0.01438525705985683</v>
       </c>
       <c r="J7">
-        <v>0.1679422007656797</v>
+        <v>0.2307198138314988</v>
       </c>
       <c r="K7">
-        <v>0.8565348007685287</v>
+        <v>0.5404667876859577</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1731815550315119</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2369920672801911</v>
       </c>
       <c r="N7">
-        <v>1.091098620910088</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.8834764775820645</v>
       </c>
       <c r="Q7">
-        <v>0.838163507253995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9647296669954528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210618935430432</v>
+        <v>3.213014693089974</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04024786696244576</v>
+        <v>0.03598437826325096</v>
       </c>
       <c r="E8">
-        <v>1.152134780707115</v>
+        <v>0.7984510561527145</v>
       </c>
       <c r="F8">
-        <v>0.3934067624687785</v>
+        <v>0.4333227292081432</v>
       </c>
       <c r="G8">
-        <v>0.3037101302974463</v>
+        <v>0.3579366481478274</v>
       </c>
       <c r="H8">
-        <v>0.0009979101549490998</v>
+        <v>0.0005386411297149118</v>
       </c>
       <c r="I8">
-        <v>0.01687274566675878</v>
+        <v>0.0118803533734404</v>
       </c>
       <c r="J8">
-        <v>0.1859095731131646</v>
+        <v>0.2396227049988937</v>
       </c>
       <c r="K8">
-        <v>0.9516479811928491</v>
+        <v>0.5896555636407044</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.200043959040336</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2440370010432176</v>
       </c>
       <c r="N8">
-        <v>1.312996321736279</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.071511339360939</v>
       </c>
       <c r="Q8">
-        <v>0.9861493101779217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.120244067974454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.269963012943833</v>
+        <v>4.275501370748657</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05367516830035868</v>
+        <v>0.04840472918504446</v>
       </c>
       <c r="E9">
-        <v>1.443002091186088</v>
+        <v>1.0058289474579</v>
       </c>
       <c r="F9">
-        <v>0.5211420693167739</v>
+        <v>0.5681311599042118</v>
       </c>
       <c r="G9">
-        <v>0.4115320937086864</v>
+        <v>0.4845696491482556</v>
       </c>
       <c r="H9">
-        <v>3.692758212547886E-07</v>
+        <v>2.196659890035813E-05</v>
       </c>
       <c r="I9">
-        <v>0.01081592041383139</v>
+        <v>0.007669290587971389</v>
       </c>
       <c r="J9">
-        <v>0.2250188522607459</v>
+        <v>0.2769858680372437</v>
       </c>
       <c r="K9">
-        <v>1.137715652164118</v>
+        <v>0.6887590818465767</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2596124965355529</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2569979300271399</v>
       </c>
       <c r="N9">
-        <v>1.741549684555139</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.438634601719173</v>
       </c>
       <c r="Q9">
-        <v>1.29738119359763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.45493814500793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.046172947371758</v>
+        <v>5.052933354511083</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06431667104818928</v>
+        <v>0.05886170250889933</v>
       </c>
       <c r="E10">
-        <v>1.71276347742716</v>
+        <v>1.192037320074974</v>
       </c>
       <c r="F10">
-        <v>0.613545716781303</v>
+        <v>0.6597706510388264</v>
       </c>
       <c r="G10">
-        <v>0.4887310463455492</v>
+        <v>0.5954602352907585</v>
       </c>
       <c r="H10">
-        <v>0.0006030039940965182</v>
+        <v>0.0007249944746852144</v>
       </c>
       <c r="I10">
-        <v>0.007656192999426104</v>
+        <v>0.005641436971217217</v>
       </c>
       <c r="J10">
-        <v>0.252998708646814</v>
+        <v>0.2750447894668753</v>
       </c>
       <c r="K10">
-        <v>1.324729120671904</v>
+        <v>0.7931597106607384</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3181618863571103</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.277803716620646</v>
       </c>
       <c r="N10">
-        <v>2.038755353123435</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.683461824125999</v>
       </c>
       <c r="Q10">
-        <v>1.520147983839792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.675037789478694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.398720686685863</v>
+        <v>5.405203842183141</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07524277714419014</v>
+        <v>0.06966540299911372</v>
       </c>
       <c r="E11">
-        <v>2.323004578245474</v>
+        <v>1.58962032505589</v>
       </c>
       <c r="F11">
-        <v>0.6107675752836172</v>
+        <v>0.6523760205692213</v>
       </c>
       <c r="G11">
-        <v>0.4787017826105</v>
+        <v>0.6386122141542216</v>
       </c>
       <c r="H11">
-        <v>0.01935292017434875</v>
+        <v>0.01936239767564629</v>
       </c>
       <c r="I11">
-        <v>0.007043190786370168</v>
+        <v>0.005642003804116946</v>
       </c>
       <c r="J11">
-        <v>0.2418508665576979</v>
+        <v>0.2124833160059438</v>
       </c>
       <c r="K11">
-        <v>1.774315904853452</v>
+        <v>1.0387416647186</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.418947389989043</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3616449143642271</v>
       </c>
       <c r="N11">
-        <v>1.984257484920931</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.570055783498105</v>
       </c>
       <c r="Q11">
-        <v>1.475828018376347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.613920886554865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.532340081085181</v>
+        <v>5.538395449321627</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08241167865008237</v>
+        <v>0.07633616904816165</v>
       </c>
       <c r="E12">
-        <v>2.833555488650887</v>
+        <v>1.922435374192233</v>
       </c>
       <c r="F12">
-        <v>0.590126746644394</v>
+        <v>0.6314627681728382</v>
       </c>
       <c r="G12">
-        <v>0.4557704236834894</v>
+        <v>0.6402008079630122</v>
       </c>
       <c r="H12">
-        <v>0.05809896619627608</v>
+        <v>0.05802132516719638</v>
       </c>
       <c r="I12">
-        <v>0.006574793047397165</v>
+        <v>0.00541367388136571</v>
       </c>
       <c r="J12">
-        <v>0.2272729386549486</v>
+        <v>0.1796454161761858</v>
       </c>
       <c r="K12">
-        <v>2.145865739227105</v>
+        <v>1.238742457582305</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4972759640035065</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4333000925418062</v>
       </c>
       <c r="N12">
-        <v>1.867416009376853</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.422776939178391</v>
       </c>
       <c r="Q12">
-        <v>1.396828320874306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.532587189657619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.5038280469048</v>
+        <v>5.509456601340844</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08720430187174344</v>
+        <v>0.07982053918092191</v>
       </c>
       <c r="E13">
-        <v>3.30397381147921</v>
+        <v>2.232023986663677</v>
       </c>
       <c r="F13">
-        <v>0.5526902440190113</v>
+        <v>0.5997879137894273</v>
       </c>
       <c r="G13">
-        <v>0.4197672926787135</v>
+        <v>0.5996900386972754</v>
       </c>
       <c r="H13">
-        <v>0.1137932316864578</v>
+        <v>0.1136643999104905</v>
       </c>
       <c r="I13">
-        <v>0.006548578177174136</v>
+        <v>0.005459679889249891</v>
       </c>
       <c r="J13">
-        <v>0.2082280744975407</v>
+        <v>0.1714355919068637</v>
       </c>
       <c r="K13">
-        <v>2.487265476195432</v>
+        <v>1.41717944166605</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5620518300470252</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.5017990811660624</v>
       </c>
       <c r="N13">
-        <v>1.70541022742367</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.249364364868086</v>
       </c>
       <c r="Q13">
-        <v>1.28066170088681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.43329473609819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.410286440744642</v>
+        <v>5.415634364116613</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08952972269668891</v>
+        <v>0.08082749316670146</v>
       </c>
       <c r="E14">
-        <v>3.623319723742156</v>
+        <v>2.443854790822826</v>
       </c>
       <c r="F14">
-        <v>0.5188094794175129</v>
+        <v>0.5723515164254991</v>
       </c>
       <c r="G14">
-        <v>0.3886517093222182</v>
+        <v>0.5534365672885428</v>
       </c>
       <c r="H14">
-        <v>0.1630474183176034</v>
+        <v>0.1629017260828221</v>
       </c>
       <c r="I14">
-        <v>0.006807564891162521</v>
+        <v>0.005718024569942415</v>
       </c>
       <c r="J14">
-        <v>0.1928355995547975</v>
+        <v>0.1753313833374222</v>
       </c>
       <c r="K14">
-        <v>2.71925634281574</v>
+        <v>1.535323498165013</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6018713422067776</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.5499536163442187</v>
       </c>
       <c r="N14">
-        <v>1.574327112862818</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.118823445889177</v>
       </c>
       <c r="Q14">
-        <v>1.182447277261645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.354267132164097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.352874517337966</v>
+        <v>5.358161495393233</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08958115592557192</v>
+        <v>0.08040058231478042</v>
       </c>
       <c r="E15">
-        <v>3.687920428503276</v>
+        <v>2.487395190144923</v>
       </c>
       <c r="F15">
-        <v>0.5066985812032954</v>
+        <v>0.5628791292252302</v>
       </c>
       <c r="G15">
-        <v>0.3779443982974868</v>
+        <v>0.5341012143818489</v>
       </c>
       <c r="H15">
-        <v>0.1754861150548237</v>
+        <v>0.1753475007467955</v>
       </c>
       <c r="I15">
-        <v>0.007102129388081302</v>
+        <v>0.005998856662568386</v>
       </c>
       <c r="J15">
-        <v>0.1879731155947155</v>
+        <v>0.1803891047649273</v>
       </c>
       <c r="K15">
-        <v>2.767842845667403</v>
+        <v>1.558860036055464</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6082373228125988</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.560975778661593</v>
       </c>
       <c r="N15">
-        <v>1.534890844038443</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.082306158533072</v>
       </c>
       <c r="Q15">
-        <v>1.149539041907161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.329371478353522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.023197472432344</v>
+        <v>5.028524394885096</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0839229487330897</v>
+        <v>0.07376692530549889</v>
       </c>
       <c r="E16">
-        <v>3.466758492093504</v>
+        <v>2.346225874994175</v>
       </c>
       <c r="F16">
-        <v>0.4731667948732934</v>
+        <v>0.5376204929502393</v>
       </c>
       <c r="G16">
-        <v>0.3507784159089766</v>
+        <v>0.4657789266678378</v>
       </c>
       <c r="H16">
-        <v>0.162251768930588</v>
+        <v>0.1622089603740164</v>
       </c>
       <c r="I16">
-        <v>0.008468222567086237</v>
+        <v>0.00697614193309537</v>
       </c>
       <c r="J16">
-        <v>0.1790444316190047</v>
+        <v>0.2168882022264853</v>
       </c>
       <c r="K16">
-        <v>2.608614073637085</v>
+        <v>1.464819224047332</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5611364104107537</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.5367038213291693</v>
       </c>
       <c r="N16">
-        <v>1.447460051798828</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.023639159552459</v>
       </c>
       <c r="Q16">
-        <v>1.073023598951892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.279449861288782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.82080092386019</v>
+        <v>4.826173903250663</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07835768599213822</v>
+        <v>0.06843772385067126</v>
       </c>
       <c r="E17">
-        <v>3.125026512985187</v>
+        <v>2.121615875972736</v>
       </c>
       <c r="F17">
-        <v>0.4657134014668358</v>
+        <v>0.5316408532857508</v>
       </c>
       <c r="G17">
-        <v>0.3466578168176682</v>
+        <v>0.4425907208279654</v>
       </c>
       <c r="H17">
-        <v>0.1242275854206412</v>
+        <v>0.1242239032776524</v>
       </c>
       <c r="I17">
-        <v>0.009460476176727184</v>
+        <v>0.007645773744146211</v>
       </c>
       <c r="J17">
-        <v>0.1805027820359868</v>
+        <v>0.238363539398577</v>
       </c>
       <c r="K17">
-        <v>2.362855727406568</v>
+        <v>1.331705467569918</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5054119620747457</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.492400006743452</v>
       </c>
       <c r="N17">
-        <v>1.449491229203602</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.046348702505981</v>
       </c>
       <c r="Q17">
-        <v>1.067176206778498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.2794987074071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.704312032258031</v>
+        <v>4.709835658941131</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07227150530745519</v>
+        <v>0.06330471202449672</v>
       </c>
       <c r="E18">
-        <v>2.659496208800789</v>
+        <v>1.81471704662826</v>
       </c>
       <c r="F18">
-        <v>0.4803972215391852</v>
+        <v>0.5442163633935664</v>
       </c>
       <c r="G18">
-        <v>0.3627316410675689</v>
+        <v>0.4482125278857012</v>
       </c>
       <c r="H18">
-        <v>0.07134378827429799</v>
+        <v>0.0713519603392001</v>
       </c>
       <c r="I18">
-        <v>0.00982987590327955</v>
+        <v>0.007689086864590244</v>
       </c>
       <c r="J18">
-        <v>0.1914148518248169</v>
+        <v>0.2569371588537024</v>
       </c>
       <c r="K18">
-        <v>2.02375673029573</v>
+        <v>1.152604348098578</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4369833172094104</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.4267149541818043</v>
       </c>
       <c r="N18">
-        <v>1.525666579313764</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.142821681332634</v>
       </c>
       <c r="Q18">
-        <v>1.123975349231728</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.331555983430036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.664923387577232</v>
+        <v>4.670701291208843</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06662684116344764</v>
+        <v>0.05885713355571198</v>
       </c>
       <c r="E19">
-        <v>2.189658241938943</v>
+        <v>1.504985761606704</v>
       </c>
       <c r="F19">
-        <v>0.5106467943478492</v>
+        <v>0.5704912304842225</v>
       </c>
       <c r="G19">
-        <v>0.3931741889253999</v>
+        <v>0.4728256070915364</v>
       </c>
       <c r="H19">
-        <v>0.02617072111289787</v>
+        <v>0.02619385485474623</v>
       </c>
       <c r="I19">
-        <v>0.01014533526847572</v>
+        <v>0.007859668562229416</v>
       </c>
       <c r="J19">
-        <v>0.2085567562509425</v>
+        <v>0.2747511501518858</v>
       </c>
       <c r="K19">
-        <v>1.685524229780214</v>
+        <v>0.976500356317672</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3727389511902146</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3592908460489141</v>
       </c>
       <c r="N19">
-        <v>1.668241958842231</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.304226020755522</v>
       </c>
       <c r="Q19">
-        <v>1.224329684287511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.421217375736262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.842480793414211</v>
+        <v>4.848980544320284</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06187942047947104</v>
+        <v>0.05595061324716966</v>
       </c>
       <c r="E20">
-        <v>1.668780464422952</v>
+        <v>1.162808698800376</v>
       </c>
       <c r="F20">
-        <v>0.5860407059933479</v>
+        <v>0.6367618594845794</v>
       </c>
       <c r="G20">
-        <v>0.4652291899863741</v>
+        <v>0.5517245821277896</v>
       </c>
       <c r="H20">
-        <v>0.0003454025437745756</v>
+        <v>0.0004598519030021286</v>
       </c>
       <c r="I20">
-        <v>0.00926473985455889</v>
+        <v>0.007138957165853554</v>
       </c>
       <c r="J20">
-        <v>0.2438978904771716</v>
+        <v>0.2912579462962555</v>
       </c>
       <c r="K20">
-        <v>1.304506327857283</v>
+        <v>0.7806803999639982</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3078963612314141</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2782268843082321</v>
       </c>
       <c r="N20">
-        <v>1.976944863604899</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.632368731271072</v>
       </c>
       <c r="Q20">
-        <v>1.451139445578974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.620754945612873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.437770098633791</v>
+        <v>5.444777502248485</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06900486983696652</v>
+        <v>0.06550356401309188</v>
       </c>
       <c r="E21">
-        <v>1.796182166460184</v>
+        <v>1.239908051137235</v>
       </c>
       <c r="F21">
-        <v>0.6671539706181022</v>
+        <v>0.6957662346826368</v>
       </c>
       <c r="G21">
-        <v>0.5346255371606645</v>
+        <v>0.710810237455533</v>
       </c>
       <c r="H21">
-        <v>0.001037831638372233</v>
+        <v>0.001127674048534533</v>
       </c>
       <c r="I21">
-        <v>0.00701479485865697</v>
+        <v>0.005636076694615966</v>
       </c>
       <c r="J21">
-        <v>0.2708035432931553</v>
+        <v>0.211654031888969</v>
       </c>
       <c r="K21">
-        <v>1.390602511027524</v>
+        <v>0.8387595889585313</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3461435755574911</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2851982691155683</v>
       </c>
       <c r="N21">
-        <v>2.237917999428845</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.849338615114249</v>
       </c>
       <c r="Q21">
-        <v>1.654971256304378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.752145446403745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.826744263642979</v>
+        <v>5.833780741049338</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07387337421121742</v>
+        <v>0.07219717838216866</v>
       </c>
       <c r="E22">
-        <v>1.894753474862924</v>
+        <v>1.299546423910016</v>
       </c>
       <c r="F22">
-        <v>0.7197119886938168</v>
+        <v>0.7320268591431045</v>
       </c>
       <c r="G22">
-        <v>0.5793966606460685</v>
+        <v>0.8237596899439126</v>
       </c>
       <c r="H22">
-        <v>0.001826336512820215</v>
+        <v>0.00182693216386684</v>
       </c>
       <c r="I22">
-        <v>0.005473700055964592</v>
+        <v>0.004447452792150308</v>
       </c>
       <c r="J22">
-        <v>0.2881256887009442</v>
+        <v>0.1632235051825504</v>
       </c>
       <c r="K22">
-        <v>1.455637276668497</v>
+        <v>0.8819503257466721</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3735875759030591</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2916631274617956</v>
       </c>
       <c r="N22">
-        <v>2.390181819299499</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.971961166819909</v>
       </c>
       <c r="Q22">
-        <v>1.786394085870654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.83029518500075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.619127249953237</v>
+        <v>5.626208105323201</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07114573617455022</v>
+        <v>0.06818326804643249</v>
       </c>
       <c r="E23">
-        <v>1.832634053681303</v>
+        <v>1.263615792847375</v>
       </c>
       <c r="F23">
-        <v>0.6925699495150752</v>
+        <v>0.7162418048801555</v>
       </c>
       <c r="G23">
-        <v>0.5564294030506716</v>
+        <v>0.7544320350078522</v>
       </c>
       <c r="H23">
-        <v>0.001373143103070795</v>
+        <v>0.001434433744613717</v>
       </c>
       <c r="I23">
-        <v>0.005945649686717402</v>
+        <v>0.004669565179935553</v>
       </c>
       <c r="J23">
-        <v>0.2793775512362942</v>
+        <v>0.1982059256550741</v>
       </c>
       <c r="K23">
-        <v>1.410025857056127</v>
+        <v>0.8514584206610181</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3560996730338886</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2854516468111825</v>
       </c>
       <c r="N23">
-        <v>2.30224434479436</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.903126654362183</v>
       </c>
       <c r="Q23">
-        <v>1.719258180944308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.800298253788895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.83278725359844</v>
+        <v>4.839332982629287</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06105622878011019</v>
+        <v>0.05527585044862349</v>
       </c>
       <c r="E24">
-        <v>1.613453268453497</v>
+        <v>1.126667713473211</v>
       </c>
       <c r="F24">
-        <v>0.5903948267504191</v>
+        <v>0.6404556706137612</v>
       </c>
       <c r="G24">
-        <v>0.4698427427328653</v>
+        <v>0.5548300010021592</v>
       </c>
       <c r="H24">
-        <v>0.0002363099876387942</v>
+        <v>0.0003600785640152093</v>
       </c>
       <c r="I24">
-        <v>0.008750449150938699</v>
+        <v>0.006501746793392549</v>
       </c>
       <c r="J24">
-        <v>0.2465049185469752</v>
+        <v>0.2944063332637086</v>
       </c>
       <c r="K24">
-        <v>1.258413196404391</v>
+        <v>0.7556227124587593</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2985868059031986</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2687961750915804</v>
       </c>
       <c r="N24">
-        <v>1.980803573998941</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.642373904590158</v>
       </c>
       <c r="Q24">
-        <v>1.466365807598379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.634028810967408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.983812736308209</v>
+        <v>3.988644486243174</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05022479417318237</v>
+        <v>0.04500899550852466</v>
       </c>
       <c r="E25">
-        <v>1.377996498977069</v>
+        <v>0.9591492822569307</v>
       </c>
       <c r="F25">
-        <v>0.4843457822497967</v>
+        <v>0.5312588920110599</v>
       </c>
       <c r="G25">
-        <v>0.3801925164257511</v>
+        <v>0.4437916749928519</v>
       </c>
       <c r="H25">
-        <v>7.597976656303906E-05</v>
+        <v>6.893347428510443E-06</v>
       </c>
       <c r="I25">
-        <v>0.01275039306903647</v>
+        <v>0.009234853283668798</v>
       </c>
       <c r="J25">
-        <v>0.21321416164281</v>
+        <v>0.2729763961706624</v>
       </c>
       <c r="K25">
-        <v>1.101533066171413</v>
+        <v>0.6690054133585477</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2452989521211464</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2565283083628813</v>
       </c>
       <c r="N25">
-        <v>1.635214924027167</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.346867888529204</v>
       </c>
       <c r="Q25">
-        <v>1.206028785955596</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.363248483432642</v>
       </c>
     </row>
   </sheetData>
